--- a/Senato/senato-collegi-uninominali.xlsx
+++ b/Senato/senato-collegi-uninominali.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H297"/>
+  <dimension ref="A1:G297"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -390,11 +390,6 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Pos.</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
           <t>Candidato</t>
         </is>
       </c>
@@ -422,20 +417,15 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Abruzzo - P01</t>
+          <t>Abruzzo - U01</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Abruzzo - U01</t>
+          <t>Pescara</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
-        <is>
-          <t>Pescara</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
         <is>
           <t>Guido Quintino Liris</t>
         </is>
@@ -464,20 +454,15 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Basilicata - P01</t>
+          <t>Basilicata - U01</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Basilicata - U01</t>
+          <t>Potenza</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
-        <is>
-          <t>Potenza</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
         <is>
           <t>Maria Elisabetta Alberti
 Casellati</t>
@@ -507,20 +492,15 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Calabria - P01</t>
+          <t>Calabria - U01</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Calabria - U01</t>
+          <t>Corigliano-Rossano</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
-        <is>
-          <t>Corigliano-Rossano</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
         <is>
           <t>Ernesto Rapani</t>
         </is>
@@ -549,20 +529,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Calabria - P01</t>
+          <t>Calabria - U02</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Calabria - U02</t>
+          <t>Reggio di Calabria</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
-        <is>
-          <t>Reggio di Calabria</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
         <is>
           <t>Clotilde Minasi</t>
         </is>
@@ -591,20 +566,15 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Campania - P02</t>
+          <t>Campania - U01</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Campania - U01</t>
+          <t>Caserta</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
-        <is>
-          <t>Caserta</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
         <is>
           <t>Giovanna Petrenga</t>
         </is>
@@ -633,20 +603,15 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Campania - P02</t>
+          <t>Campania - U02</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Campania - U02</t>
+          <t>Benevento</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
-        <is>
-          <t>Benevento</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
         <is>
           <t>Giulia Cosenza</t>
         </is>
@@ -675,20 +640,15 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Campania - P02</t>
+          <t>Campania - U03</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Campania - U03</t>
+          <t>Salerno</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
-        <is>
-          <t>Salerno</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
         <is>
           <t>Antonio Iannone</t>
         </is>
@@ -717,20 +677,15 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Campania - P01</t>
+          <t>Campania - U04</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Campania - U04</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
-        <is>
-          <t>Napoli</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
         <is>
           <t>Stefano Caldoro</t>
         </is>
@@ -759,20 +714,15 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Campania - P01</t>
+          <t>Campania - U05</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Campania - U05</t>
+          <t>Giugliano in Campania</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
-        <is>
-          <t>Giugliano in Campania</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
         <is>
           <t>Elena Scarlato</t>
         </is>
@@ -801,20 +751,15 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Campania - P01</t>
+          <t>Campania - U06</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Campania - U06</t>
+          <t>Torre del Greco</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
-        <is>
-          <t>Torre del Greco</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
         <is>
           <t>Giuseppina Castiello</t>
         </is>
@@ -843,20 +788,15 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Campania - P01</t>
+          <t>Campania - U07</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Campania - U07</t>
+          <t>Acerra</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
-        <is>
-          <t>Acerra</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
         <is>
           <t>Claudio Barbaro</t>
         </is>
@@ -885,20 +825,15 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Emilia-Romagna - P01</t>
+          <t>Emilia-Romagna - U01</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Emilia-Romagna - U01</t>
+          <t>Parma</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
-        <is>
-          <t>Parma</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
         <is>
           <t>Elena Murelli</t>
         </is>
@@ -927,20 +862,15 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Emilia-Romagna - P01</t>
+          <t>Emilia-Romagna - U02</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Emilia-Romagna - U02</t>
+          <t>Modena</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
-        <is>
-          <t>Modena</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
         <is>
           <t>Enrico Aimi</t>
         </is>
@@ -969,20 +899,15 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Emilia-Romagna - P02</t>
+          <t>Emilia-Romagna - U03</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Emilia-Romagna - U03</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
-        <is>
-          <t>Bologna</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
         <is>
           <t>Vittorio Sgarbi</t>
         </is>
@@ -1011,20 +936,15 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Emilia-Romagna - P02</t>
+          <t>Emilia-Romagna - U04</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Emilia-Romagna - U04</t>
+          <t>Ravenna</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
-        <is>
-          <t>Ravenna</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
         <is>
           <t>Alberto Balboni</t>
         </is>
@@ -1053,20 +973,15 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Emilia-Romagna - P02</t>
+          <t>Emilia-Romagna - U05</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Emilia-Romagna - U05</t>
+          <t>Rimini</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
-        <is>
-          <t>Rimini</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
         <is>
           <t>Marta Farolfi</t>
         </is>
@@ -1095,20 +1010,15 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Friuli-Venezia Giulia - P01</t>
+          <t>Friuli-Venezia Giulia - U01</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Friuli-Venezia Giulia - U01</t>
+          <t>Trieste</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
-        <is>
-          <t>Trieste</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
         <is>
           <t>Luca Ciriani</t>
         </is>
@@ -1137,20 +1047,15 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Lazio - P02</t>
+          <t>Lazio - U01</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Lazio - U01</t>
+          <t>Viterbo</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
-        <is>
-          <t>Viterbo</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
         <is>
           <t>Claudio Durigon</t>
         </is>
@@ -1179,20 +1084,15 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Lazio - P01</t>
+          <t>Lazio - U02</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Lazio - U02</t>
+          <t>Roma: Municipio XIV</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
-        <is>
-          <t>Roma: Municipio XIV</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
         <is>
           <t>Lavinia Mennuni</t>
         </is>
@@ -1221,20 +1121,15 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Lazio - P01</t>
+          <t>Lazio - U03</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Lazio - U03</t>
+          <t>Roma: Municipio V</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
-        <is>
-          <t>Roma: Municipio V</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
         <is>
           <t>Giulia Bongiorno</t>
         </is>
@@ -1263,20 +1158,15 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Lazio - P01</t>
+          <t>Lazio - U04</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Lazio - U04</t>
+          <t>Roma: Municipio VII</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
-        <is>
-          <t>Roma: Municipio VII</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
         <is>
           <t>Ester Mieli</t>
         </is>
@@ -1305,20 +1195,15 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Lazio - P02</t>
+          <t>Lazio - U05</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Lazio - U05</t>
+          <t>Guidonia Montecelio</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
-        <is>
-          <t>Guidonia Montecelio</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
         <is>
           <t>Marco Silvestroni</t>
         </is>
@@ -1347,20 +1232,15 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Lazio - P02</t>
+          <t>Lazio - U06</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Lazio - U06</t>
+          <t>Latina</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
-        <is>
-          <t>Latina</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
         <is>
           <t>Claudio Fazzone</t>
         </is>
@@ -1389,21 +1269,16 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Liguria - P01</t>
+          <t>Liguria - U01</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
-        <is>
-          <t>Liguria - U01</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
         <is>
           <t>Genova: Municipio VII -
 Ponente</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>Giovanni Berrino</t>
         </is>
@@ -1432,20 +1307,15 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Liguria - P01</t>
+          <t>Liguria - U02</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Liguria - U02</t>
+          <t>La Spezia</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
-        <is>
-          <t>La Spezia</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
         <is>
           <t>Stefania Pucciarelli</t>
         </is>
@@ -1474,20 +1344,15 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Lombardia - P01</t>
+          <t>Lombardia - U01</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Lombardia - U01</t>
+          <t>Varese</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
-        <is>
-          <t>Varese</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
         <is>
           <t>Massimiliano Romeo</t>
         </is>
@@ -1516,20 +1381,15 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Lombardia - P01</t>
+          <t>Lombardia - U02</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Lombardia - U02</t>
+          <t>Como</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
-        <is>
-          <t>Como</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
         <is>
           <t>Licia Ronzulli</t>
         </is>
@@ -1558,21 +1418,16 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Lombardia - P02</t>
+          <t>Lombardia - U03</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
-        <is>
-          <t>Lombardia - U03</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
         <is>
           <t>Milano: NIL 21 - Buenos Aires -
 Venezia</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>Maria Cristina Cantù</t>
         </is>
@@ -1601,20 +1456,15 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Lombardia - P02</t>
+          <t>Lombardia - U04</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Lombardia - U04</t>
+          <t>Sesto San Giovanni</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
-        <is>
-          <t>Sesto San Giovanni</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
         <is>
           <t>Isabella Rauti</t>
         </is>
@@ -1643,20 +1493,15 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Lombardia - P02</t>
+          <t>Lombardia - U05</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Lombardia - U05</t>
+          <t>Cologno Monzese</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
-        <is>
-          <t>Cologno Monzese</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
         <is>
           <t>Ignazio Benito Maria La
 Russa</t>
@@ -1686,20 +1531,15 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Lombardia - P01</t>
+          <t>Lombardia - U06</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Lombardia - U06</t>
+          <t>Monza</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
-        <is>
-          <t>Monza</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
         <is>
           <t>Silvio Berlusconi</t>
         </is>
@@ -1728,20 +1568,15 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Lombardia - P03</t>
+          <t>Lombardia - U07</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Lombardia - U07</t>
+          <t>Bergamo</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
-        <is>
-          <t>Bergamo</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
         <is>
           <t>Daisy Pirovano</t>
         </is>
@@ -1770,20 +1605,15 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Lombardia - P03</t>
+          <t>Lombardia - U08</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Lombardia - U08</t>
+          <t>Brescia</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
-        <is>
-          <t>Brescia</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
         <is>
           <t>Stefano Borghesi</t>
         </is>
@@ -1812,20 +1642,15 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Lombardia - P03</t>
+          <t>Lombardia - U09</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Lombardia - U09</t>
+          <t>Treviglio</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
-        <is>
-          <t>Treviglio</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
         <is>
           <t>Giuliomaria Terzi di
 Sant'Agata</t>
@@ -1855,20 +1680,15 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Lombardia - P02</t>
+          <t>Lombardia - U10</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Lombardia - U10</t>
+          <t>Pavia</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
-        <is>
-          <t>Pavia</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
         <is>
           <t>Gian Marco Centinaio</t>
         </is>
@@ -1897,20 +1717,15 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Lombardia - P03</t>
+          <t>Lombardia - U11</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Lombardia - U11</t>
+          <t>Cremona</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
-        <is>
-          <t>Cremona</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
         <is>
           <t>Daniela Garnero
 Santanchè</t>
@@ -1940,20 +1755,15 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Marche - P01</t>
+          <t>Marche - U01</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Marche - U01</t>
+          <t>Ascoli Piceno</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
-        <is>
-          <t>Ascoli Piceno</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
         <is>
           <t>Elena Leonardi</t>
         </is>
@@ -1982,20 +1792,15 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Marche - P01</t>
+          <t>Marche - U02</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Marche - U02</t>
+          <t>Ancona</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
-        <is>
-          <t>Ancona</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
         <is>
           <t>Antonio De Poli</t>
         </is>
@@ -2024,20 +1829,15 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Molise - P01</t>
+          <t>Molise - U01</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Molise - U01</t>
+          <t>Campobasso</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
-        <is>
-          <t>Campobasso</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
         <is>
           <t>Claudio Lotito</t>
         </is>
@@ -2066,20 +1866,15 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Piemonte - P01</t>
+          <t>Piemonte - U01</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Piemonte - U01</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
         <is>
           <t>Marzia Casolati</t>
         </is>
@@ -2108,20 +1903,15 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Piemonte - P01</t>
+          <t>Piemonte - U02</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Piemonte - U02</t>
+          <t>Moncalieri</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
-        <is>
-          <t>Moncalieri</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
         <is>
           <t>Paola Ambrogio</t>
         </is>
@@ -2150,20 +1940,15 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Piemonte - P02</t>
+          <t>Piemonte - U03</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Piemonte - U03</t>
+          <t>Novara</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
-        <is>
-          <t>Novara</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
         <is>
           <t>Gaetano Nastri</t>
         </is>
@@ -2192,20 +1977,15 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Piemonte - P02</t>
+          <t>Piemonte - U04</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Piemonte - U04</t>
+          <t>Alessandria</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
-        <is>
-          <t>Alessandria</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
         <is>
           <t>Paolo Zangrillo</t>
         </is>
@@ -2234,20 +2014,15 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Piemonte - P02</t>
+          <t>Piemonte - U05</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Piemonte - U05</t>
+          <t>Cuneo</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
-        <is>
-          <t>Cuneo</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
         <is>
           <t>Giorgio Maria Bergesio</t>
         </is>
@@ -2276,20 +2051,15 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Puglia - P01</t>
+          <t>Puglia - U01</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Puglia - U01</t>
+          <t>Foggia</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
-        <is>
-          <t>Foggia</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
         <is>
           <t>Anna Maria Fallucchi</t>
         </is>
@@ -2318,20 +2088,15 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Puglia - P01</t>
+          <t>Puglia - U02</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Puglia - U02</t>
+          <t>Andria</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
-        <is>
-          <t>Andria</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
         <is>
           <t>Francesco Paolo Sisto</t>
         </is>
@@ -2360,20 +2125,15 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Puglia - P01</t>
+          <t>Puglia - U03</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Puglia - U03</t>
+          <t>Bari</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
-        <is>
-          <t>Bari</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
         <is>
           <t>Filippo Melchiorre</t>
         </is>
@@ -2402,20 +2162,15 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Puglia - P01</t>
+          <t>Puglia - U04</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Puglia - U04</t>
+          <t>Taranto</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
-        <is>
-          <t>Taranto</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
         <is>
           <t>Vita Maria Nocco</t>
         </is>
@@ -2444,20 +2199,15 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Puglia - P01</t>
+          <t>Puglia - U05</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Puglia - U05</t>
+          <t>Lecce</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
-        <is>
-          <t>Lecce</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
         <is>
           <t>Roberto Marti</t>
         </is>
@@ -2486,20 +2236,15 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Sardegna - P01</t>
+          <t>Sardegna - U01</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Sardegna - U01</t>
+          <t>Cagliari</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
-        <is>
-          <t>Cagliari</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
         <is>
           <t>Antonella Zedda</t>
         </is>
@@ -2528,20 +2273,15 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Sardegna - P01</t>
+          <t>Sardegna - U02</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Sardegna - U02</t>
+          <t>Sassari</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
-        <is>
-          <t>Sassari</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
         <is>
           <t>Marcello Pera</t>
         </is>
@@ -2570,20 +2310,15 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Sicilia - P01</t>
+          <t>Sicilia - U01</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Sicilia - U01</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
-        <is>
-          <t>Palermo</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
         <is>
           <t>Mario Barbuto</t>
         </is>
@@ -2612,20 +2347,15 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Sicilia - P01</t>
+          <t>Sicilia - U02</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Sicilia - U02</t>
+          <t>Marsala</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
-        <is>
-          <t>Marsala</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
         <is>
           <t>Raoul Russo</t>
         </is>
@@ -2654,20 +2384,15 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Sicilia - P01</t>
+          <t>Sicilia - U03</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Sicilia - U03</t>
+          <t>Gela</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
-        <is>
-          <t>Gela</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
         <is>
           <t>Stefania Gabriella
 Anastasia Craxi</t>
@@ -2697,20 +2422,15 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Sicilia - P02</t>
+          <t>Sicilia - U04</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Sicilia - U04</t>
+          <t>Catania</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
-        <is>
-          <t>Catania</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
         <is>
           <t>Sebastiano detto Nello
 Musumeci</t>
@@ -2740,20 +2460,15 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Sicilia - P02</t>
+          <t>Sicilia - U05</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Sicilia - U05</t>
+          <t>Siracusa</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
-        <is>
-          <t>Siracusa</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
         <is>
           <t>Salvatore Sallemi</t>
         </is>
@@ -2782,20 +2497,15 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Sicilia - P02</t>
+          <t>Sicilia - U06</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Sicilia - U06</t>
+          <t>Messina</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
-        <is>
-          <t>Messina</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
         <is>
           <t>Carmela Bucalo</t>
         </is>
@@ -2824,20 +2534,15 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Toscana - P01</t>
+          <t>Toscana - U01</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Toscana - U01</t>
+          <t>Arezzo</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
-        <is>
-          <t>Arezzo</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
         <is>
           <t>Simona Petrucci</t>
         </is>
@@ -2866,20 +2571,15 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Toscana - P01</t>
+          <t>Toscana - U02</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Toscana - U02</t>
+          <t>Livorno</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
-        <is>
-          <t>Livorno</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
         <is>
           <t>Manfredi Potenti</t>
         </is>
@@ -2908,20 +2608,15 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Toscana - P01</t>
+          <t>Toscana - U03</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Toscana - U03</t>
+          <t>Prato</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
-        <is>
-          <t>Prato</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
         <is>
           <t>Patrizio Giacomo La Pietra</t>
         </is>
@@ -2950,20 +2645,15 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Toscana - P01</t>
+          <t>Toscana - U04</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Toscana - U04</t>
+          <t>Firenze</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
-        <is>
-          <t>Firenze</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
         <is>
           <t>Federica Picchi</t>
         </is>
@@ -2992,21 +2682,16 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
           <t>Trentino-Alto Adige/Südtirol -
 U01</t>
         </is>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Trento</t>
+        </is>
+      </c>
       <c r="G63" t="inlineStr">
-        <is>
-          <t>Trento</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
         <is>
           <t>COALIZIONE</t>
         </is>
@@ -3035,21 +2720,16 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
           <t>Trentino-Alto Adige/Südtirol -
 U02</t>
         </is>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Rovereto</t>
+        </is>
+      </c>
       <c r="G64" t="inlineStr">
-        <is>
-          <t>Rovereto</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
         <is>
           <t>COALIZIONE</t>
         </is>
@@ -3078,21 +2758,16 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
           <t>Trentino-Alto Adige/Südtirol -
 U03</t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Pergine Valsugana</t>
+        </is>
+      </c>
       <c r="G65" t="inlineStr">
-        <is>
-          <t>Pergine Valsugana</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
         <is>
           <t>COALIZIONE</t>
         </is>
@@ -3121,21 +2796,16 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
           <t>Trentino-Alto Adige/Südtirol -
 U04</t>
         </is>
       </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Bolzano/Bozen</t>
+        </is>
+      </c>
       <c r="G66" t="inlineStr">
-        <is>
-          <t>Bolzano/Bozen</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
         <is>
           <t>COALIZIONE</t>
         </is>
@@ -3164,21 +2834,16 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
           <t>Trentino-Alto Adige/Südtirol -
 U05</t>
         </is>
       </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Merano/Meran</t>
+        </is>
+      </c>
       <c r="G67" t="inlineStr">
-        <is>
-          <t>Merano/Meran</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
         <is>
           <t>COALIZIONE</t>
         </is>
@@ -3207,21 +2872,16 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
           <t>Trentino-Alto Adige/Südtirol -
 U06</t>
         </is>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Bressanone/Brixen</t>
+        </is>
+      </c>
       <c r="G68" t="inlineStr">
-        <is>
-          <t>Bressanone/Brixen</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
         <is>
           <t>COALIZIONE</t>
         </is>
@@ -3250,20 +2910,15 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Umbria - P01</t>
+          <t>Umbria - U01</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Umbria - U01</t>
+          <t>Perugia</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
-        <is>
-          <t>Perugia</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
         <is>
           <t>Francesco Zaffini</t>
         </is>
@@ -3292,21 +2947,16 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
           <t>Valle d'aosta/Vallée d'Aoste -
 U01</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Aosta</t>
+        </is>
+      </c>
       <c r="G70" t="inlineStr">
-        <is>
-          <t>Aosta</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
         <is>
           <t>Nicoletta Spelgatti</t>
         </is>
@@ -3335,20 +2985,15 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Veneto - P01</t>
+          <t>Veneto - U01</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Veneto - U01</t>
+          <t>Venezia</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
-        <is>
-          <t>Venezia</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
         <is>
           <t>Raffaele Speranzon</t>
         </is>
@@ -3377,20 +3022,15 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Veneto - P01</t>
+          <t>Veneto - U02</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Veneto - U02</t>
+          <t>Treviso</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
-        <is>
-          <t>Treviso</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
         <is>
           <t>Luca De Carlo</t>
         </is>
@@ -3419,20 +3059,15 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Veneto - P02</t>
+          <t>Veneto - U03</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Veneto - U03</t>
+          <t>Padova</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
-        <is>
-          <t>Padova</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
         <is>
           <t>Anna Maria Bernini</t>
         </is>
@@ -3461,20 +3096,15 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Veneto - P02</t>
+          <t>Veneto - U04</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Veneto - U04</t>
+          <t>Vicenza</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
-        <is>
-          <t>Vicenza</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
         <is>
           <t>Mara Bizzotto</t>
         </is>
@@ -3503,20 +3133,15 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Veneto - P02</t>
+          <t>Veneto - U05</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Veneto - U05</t>
+          <t>Verona</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
-        <is>
-          <t>Verona</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
         <is>
           <t>Paolo Tosato</t>
         </is>
@@ -3545,20 +3170,15 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Abruzzo - P01</t>
+          <t>Abruzzo - U01</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Abruzzo - U01</t>
+          <t>Pescara</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
-        <is>
-          <t>Pescara</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
         <is>
           <t>Massimo Carugno</t>
         </is>
@@ -3587,20 +3207,15 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Basilicata - P01</t>
+          <t>Basilicata - U01</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Basilicata - U01</t>
+          <t>Potenza</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
-        <is>
-          <t>Potenza</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
         <is>
           <t>Ignazio Petrone</t>
         </is>
@@ -3629,20 +3244,15 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Calabria - P01</t>
+          <t>Calabria - U01</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Calabria - U01</t>
+          <t>Corigliano-Rossano</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
-        <is>
-          <t>Corigliano-Rossano</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
         <is>
           <t>Francesca Dorato</t>
         </is>
@@ -3671,20 +3281,15 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Calabria - P01</t>
+          <t>Calabria - U02</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Calabria - U02</t>
+          <t>Reggio di Calabria</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
-        <is>
-          <t>Reggio di Calabria</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
         <is>
           <t>Francesco Pitaro</t>
         </is>
@@ -3713,20 +3318,15 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Campania - P02</t>
+          <t>Campania - U01</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Campania - U01</t>
+          <t>Caserta</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
-        <is>
-          <t>Caserta</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
         <is>
           <t>Tommaso De Simone</t>
         </is>
@@ -3755,20 +3355,15 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Campania - P02</t>
+          <t>Campania - U02</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Campania - U02</t>
+          <t>Benevento</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
-        <is>
-          <t>Benevento</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr">
         <is>
           <t>Carlo Iannace</t>
         </is>
@@ -3797,20 +3392,15 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Campania - P02</t>
+          <t>Campania - U03</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Campania - U03</t>
+          <t>Salerno</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
-        <is>
-          <t>Salerno</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
         <is>
           <t>Anna Petrone</t>
         </is>
@@ -3839,20 +3429,15 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Campania - P01</t>
+          <t>Campania - U04</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Campania - U04</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
-        <is>
-          <t>Napoli</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
         <is>
           <t>Valeria Valente</t>
         </is>
@@ -3881,20 +3466,15 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Campania - P01</t>
+          <t>Campania - U05</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Campania - U05</t>
+          <t>Giugliano in Campania</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
-        <is>
-          <t>Giugliano in Campania</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
         <is>
           <t>Davide Crippa</t>
         </is>
@@ -3923,20 +3503,15 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Campania - P01</t>
+          <t>Campania - U06</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Campania - U06</t>
+          <t>Torre del Greco</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
-        <is>
-          <t>Torre del Greco</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr">
         <is>
           <t>Nora Di Nocera</t>
         </is>
@@ -3965,20 +3540,15 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Campania - P01</t>
+          <t>Campania - U07</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Campania - U07</t>
+          <t>Acerra</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
-        <is>
-          <t>Acerra</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr">
         <is>
           <t>Leonardo Impegno</t>
         </is>
@@ -4007,20 +3577,15 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Emilia-Romagna - P01</t>
+          <t>Emilia-Romagna - U01</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Emilia-Romagna - U01</t>
+          <t>Parma</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
-        <is>
-          <t>Parma</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr">
         <is>
           <t>Giuseppe Negri</t>
         </is>
@@ -4049,20 +3614,15 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Emilia-Romagna - P01</t>
+          <t>Emilia-Romagna - U02</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Emilia-Romagna - U02</t>
+          <t>Modena</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
-        <is>
-          <t>Modena</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr">
         <is>
           <t>Vincenza Rando</t>
         </is>
@@ -4091,20 +3651,15 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Emilia-Romagna - P02</t>
+          <t>Emilia-Romagna - U03</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Emilia-Romagna - U03</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
-        <is>
-          <t>Bologna</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr">
         <is>
           <t>Pier Ferdinando Casini</t>
         </is>
@@ -4133,20 +3688,15 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Emilia-Romagna - P02</t>
+          <t>Emilia-Romagna - U04</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Emilia-Romagna - U04</t>
+          <t>Ravenna</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
-        <is>
-          <t>Ravenna</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr">
         <is>
           <t>Manuela Rontini</t>
         </is>
@@ -4175,20 +3725,15 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Emilia-Romagna - P02</t>
+          <t>Emilia-Romagna - U05</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Emilia-Romagna - U05</t>
+          <t>Rimini</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
-        <is>
-          <t>Rimini</t>
-        </is>
-      </c>
-      <c r="H91" t="inlineStr">
         <is>
           <t>Simona Viola</t>
         </is>
@@ -4217,20 +3762,15 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Friuli-Venezia Giulia - P01</t>
+          <t>Friuli-Venezia Giulia - U01</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Friuli-Venezia Giulia - U01</t>
+          <t>Trieste</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
-        <is>
-          <t>Trieste</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr">
         <is>
           <t>Furio Honsell</t>
         </is>
@@ -4259,20 +3799,15 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Lazio - P02</t>
+          <t>Lazio - U01</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Lazio - U01</t>
+          <t>Viterbo</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
-        <is>
-          <t>Viterbo</t>
-        </is>
-      </c>
-      <c r="H93" t="inlineStr">
         <is>
           <t>Alessandro Mazzoli</t>
         </is>
@@ -4301,20 +3836,15 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Lazio - P01</t>
+          <t>Lazio - U02</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Lazio - U02</t>
+          <t>Roma: Municipio XIV</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
-        <is>
-          <t>Roma: Municipio XIV</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr">
         <is>
           <t>Emma Bonino</t>
         </is>
@@ -4343,20 +3873,15 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Lazio - P01</t>
+          <t>Lazio - U03</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Lazio - U03</t>
+          <t>Roma: Municipio V</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
-        <is>
-          <t>Roma: Municipio V</t>
-        </is>
-      </c>
-      <c r="H95" t="inlineStr">
         <is>
           <t>Andrea Catarci</t>
         </is>
@@ -4385,20 +3910,15 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Lazio - P01</t>
+          <t>Lazio - U04</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Lazio - U04</t>
+          <t>Roma: Municipio VII</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
-        <is>
-          <t>Roma: Municipio VII</t>
-        </is>
-      </c>
-      <c r="H96" t="inlineStr">
         <is>
           <t xml:space="preserve">Monica Cirinnà</t>
         </is>
@@ -4427,20 +3947,15 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Lazio - P02</t>
+          <t>Lazio - U05</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Lazio - U05</t>
+          <t>Guidonia Montecelio</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
-        <is>
-          <t>Guidonia Montecelio</t>
-        </is>
-      </c>
-      <c r="H97" t="inlineStr">
         <is>
           <t>Serena Gara</t>
         </is>
@@ -4469,20 +3984,15 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Lazio - P02</t>
+          <t>Lazio - U06</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Lazio - U06</t>
+          <t>Latina</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
-        <is>
-          <t>Latina</t>
-        </is>
-      </c>
-      <c r="H98" t="inlineStr">
         <is>
           <t>Sergio Messore</t>
         </is>
@@ -4511,21 +4021,16 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Liguria - P01</t>
+          <t>Liguria - U01</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
-        <is>
-          <t>Liguria - U01</t>
-        </is>
-      </c>
-      <c r="G99" t="inlineStr">
         <is>
           <t>Genova: Municipio VII -
 Ponente</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
+      <c r="G99" t="inlineStr">
         <is>
           <t>Sandra Zampa</t>
         </is>
@@ -4554,20 +4059,15 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Liguria - P01</t>
+          <t>Liguria - U02</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Liguria - U02</t>
+          <t>La Spezia</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
-        <is>
-          <t>La Spezia</t>
-        </is>
-      </c>
-      <c r="H100" t="inlineStr">
         <is>
           <t>Guido Melley</t>
         </is>
@@ -4596,20 +4096,15 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Lombardia - P01</t>
+          <t>Lombardia - U01</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Lombardia - U01</t>
+          <t>Varese</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
-        <is>
-          <t>Varese</t>
-        </is>
-      </c>
-      <c r="H101" t="inlineStr">
         <is>
           <t>Orlando Rinaldi</t>
         </is>
@@ -4638,20 +4133,15 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Lombardia - P01</t>
+          <t>Lombardia - U02</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Lombardia - U02</t>
+          <t>Como</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
-        <is>
-          <t>Como</t>
-        </is>
-      </c>
-      <c r="H102" t="inlineStr">
         <is>
           <t>Aurora Longa</t>
         </is>
@@ -4680,21 +4170,16 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Lombardia - P02</t>
+          <t>Lombardia - U03</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
-        <is>
-          <t>Lombardia - U03</t>
-        </is>
-      </c>
-      <c r="G103" t="inlineStr">
         <is>
           <t>Milano: NIL 21 - Buenos Aires -
 Venezia</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
+      <c r="G103" t="inlineStr">
         <is>
           <t>Antonio Misiani</t>
         </is>
@@ -4723,20 +4208,15 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Lombardia - P02</t>
+          <t>Lombardia - U04</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Lombardia - U04</t>
+          <t>Sesto San Giovanni</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
-        <is>
-          <t>Sesto San Giovanni</t>
-        </is>
-      </c>
-      <c r="H104" t="inlineStr">
         <is>
           <t>Emanuele Fiano</t>
         </is>
@@ -4765,20 +4245,15 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Lombardia - P02</t>
+          <t>Lombardia - U05</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Lombardia - U05</t>
+          <t>Cologno Monzese</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
-        <is>
-          <t>Cologno Monzese</t>
-        </is>
-      </c>
-      <c r="H105" t="inlineStr">
         <is>
           <t>Adriana Albini</t>
         </is>
@@ -4807,20 +4282,15 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Lombardia - P01</t>
+          <t>Lombardia - U06</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Lombardia - U06</t>
+          <t>Monza</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
-        <is>
-          <t>Monza</t>
-        </is>
-      </c>
-      <c r="H106" t="inlineStr">
         <is>
           <t>Federica Perelli</t>
         </is>
@@ -4849,20 +4319,15 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Lombardia - P03</t>
+          <t>Lombardia - U07</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Lombardia - U07</t>
+          <t>Bergamo</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
-        <is>
-          <t>Bergamo</t>
-        </is>
-      </c>
-      <c r="H107" t="inlineStr">
         <is>
           <t>Giacomo Angeloni</t>
         </is>
@@ -4891,20 +4356,15 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Lombardia - P03</t>
+          <t>Lombardia - U08</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Lombardia - U08</t>
+          <t>Brescia</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
-        <is>
-          <t>Brescia</t>
-        </is>
-      </c>
-      <c r="H108" t="inlineStr">
         <is>
           <t>Rosa Vitale</t>
         </is>
@@ -4933,20 +4393,15 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Lombardia - P03</t>
+          <t>Lombardia - U09</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Lombardia - U09</t>
+          <t>Treviglio</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
-        <is>
-          <t>Treviglio</t>
-        </is>
-      </c>
-      <c r="H109" t="inlineStr">
         <is>
           <t>Cristina Tedaldi</t>
         </is>
@@ -4975,20 +4430,15 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Lombardia - P02</t>
+          <t>Lombardia - U10</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Lombardia - U10</t>
+          <t>Pavia</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
-        <is>
-          <t>Pavia</t>
-        </is>
-      </c>
-      <c r="H110" t="inlineStr">
         <is>
           <t>Valerio Federico</t>
         </is>
@@ -5017,20 +4467,15 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Lombardia - P03</t>
+          <t>Lombardia - U11</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Lombardia - U11</t>
+          <t>Cremona</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
-        <is>
-          <t>Cremona</t>
-        </is>
-      </c>
-      <c r="H111" t="inlineStr">
         <is>
           <t>Carlo Cottarelli</t>
         </is>
@@ -5059,20 +4504,15 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Marche - P01</t>
+          <t>Marche - U01</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Marche - U01</t>
+          <t>Ascoli Piceno</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
-        <is>
-          <t>Ascoli Piceno</t>
-        </is>
-      </c>
-      <c r="H112" t="inlineStr">
         <is>
           <t>Mirella Gattari</t>
         </is>
@@ -5101,20 +4541,15 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Marche - P01</t>
+          <t>Marche - U02</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Marche - U02</t>
+          <t>Ancona</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
-        <is>
-          <t>Ancona</t>
-        </is>
-      </c>
-      <c r="H113" t="inlineStr">
         <is>
           <t>Marco Bentivogli</t>
         </is>
@@ -5143,20 +4578,15 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Molise - P01</t>
+          <t>Molise - U01</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Molise - U01</t>
+          <t>Campobasso</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
-        <is>
-          <t>Campobasso</t>
-        </is>
-      </c>
-      <c r="H114" t="inlineStr">
         <is>
           <t>Rossella Gianfagna</t>
         </is>
@@ -5185,20 +4615,15 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Piemonte - P01</t>
+          <t>Piemonte - U01</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Piemonte - U01</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
-      <c r="H115" t="inlineStr">
         <is>
           <t>Andrea Giorgis</t>
         </is>
@@ -5227,20 +4652,15 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Piemonte - P01</t>
+          <t>Piemonte - U02</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Piemonte - U02</t>
+          <t>Moncalieri</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
-        <is>
-          <t>Moncalieri</t>
-        </is>
-      </c>
-      <c r="H116" t="inlineStr">
         <is>
           <t>Elena Apollonio</t>
         </is>
@@ -5269,20 +4689,15 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Piemonte - P02</t>
+          <t>Piemonte - U03</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Piemonte - U03</t>
+          <t>Novara</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
-        <is>
-          <t>Novara</t>
-        </is>
-      </c>
-      <c r="H117" t="inlineStr">
         <is>
           <t>Rossana Pirovano</t>
         </is>
@@ -5311,20 +4726,15 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Piemonte - P02</t>
+          <t>Piemonte - U04</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Piemonte - U04</t>
+          <t>Alessandria</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
-        <is>
-          <t>Alessandria</t>
-        </is>
-      </c>
-      <c r="H118" t="inlineStr">
         <is>
           <t>Rita Rossa</t>
         </is>
@@ -5353,20 +4763,15 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Piemonte - P02</t>
+          <t>Piemonte - U05</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Piemonte - U05</t>
+          <t>Cuneo</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
-        <is>
-          <t>Cuneo</t>
-        </is>
-      </c>
-      <c r="H119" t="inlineStr">
         <is>
           <t>Fiammetta Rosso</t>
         </is>
@@ -5395,20 +4800,15 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Puglia - P01</t>
+          <t>Puglia - U01</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Puglia - U01</t>
+          <t>Foggia</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
-        <is>
-          <t>Foggia</t>
-        </is>
-      </c>
-      <c r="H120" t="inlineStr">
         <is>
           <t>Teresa Cicolella</t>
         </is>
@@ -5437,20 +4837,15 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Puglia - P01</t>
+          <t>Puglia - U02</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Puglia - U02</t>
+          <t>Andria</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
-        <is>
-          <t>Andria</t>
-        </is>
-      </c>
-      <c r="H121" t="inlineStr">
         <is>
           <t>Domenico Lomelo</t>
         </is>
@@ -5479,20 +4874,15 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Puglia - P01</t>
+          <t>Puglia - U03</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Puglia - U03</t>
+          <t>Bari</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
-        <is>
-          <t>Bari</t>
-        </is>
-      </c>
-      <c r="H122" t="inlineStr">
         <is>
           <t>Michele Nitti</t>
         </is>
@@ -5521,20 +4911,15 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Puglia - P01</t>
+          <t>Puglia - U04</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Puglia - U04</t>
+          <t>Taranto</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
-        <is>
-          <t>Taranto</t>
-        </is>
-      </c>
-      <c r="H123" t="inlineStr">
         <is>
           <t>Maria Grazia Cascarano</t>
         </is>
@@ -5563,20 +4948,15 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Puglia - P01</t>
+          <t>Puglia - U05</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Puglia - U05</t>
+          <t>Lecce</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
-        <is>
-          <t>Lecce</t>
-        </is>
-      </c>
-      <c r="H124" t="inlineStr">
         <is>
           <t>Luigi Lopalco</t>
         </is>
@@ -5605,20 +4985,15 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Sardegna - P01</t>
+          <t>Sardegna - U01</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Sardegna - U01</t>
+          <t>Cagliari</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
-        <is>
-          <t>Cagliari</t>
-        </is>
-      </c>
-      <c r="H125" t="inlineStr">
         <is>
           <t>Maria Del Zompo</t>
         </is>
@@ -5647,20 +5022,15 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Sardegna - P01</t>
+          <t>Sardegna - U02</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Sardegna - U02</t>
+          <t>Sassari</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
-        <is>
-          <t>Sassari</t>
-        </is>
-      </c>
-      <c r="H126" t="inlineStr">
         <is>
           <t>Gavino Manca</t>
         </is>
@@ -5689,20 +5059,15 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Sicilia - P01</t>
+          <t>Sicilia - U01</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Sicilia - U01</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
-        <is>
-          <t>Palermo</t>
-        </is>
-      </c>
-      <c r="H127" t="inlineStr">
         <is>
           <t>Ninni Terminelli</t>
         </is>
@@ -5731,20 +5096,15 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Sicilia - P01</t>
+          <t>Sicilia - U02</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Sicilia - U02</t>
+          <t>Marsala</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
-        <is>
-          <t>Marsala</t>
-        </is>
-      </c>
-      <c r="H128" t="inlineStr">
         <is>
           <t>Stefania Marascia</t>
         </is>
@@ -5773,20 +5133,15 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Sicilia - P01</t>
+          <t>Sicilia - U03</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Sicilia - U03</t>
+          <t>Gela</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
-        <is>
-          <t>Gela</t>
-        </is>
-      </c>
-      <c r="H129" t="inlineStr">
         <is>
           <t>Marina Castiglione</t>
         </is>
@@ -5815,20 +5170,15 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Sicilia - P02</t>
+          <t>Sicilia - U04</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Sicilia - U04</t>
+          <t>Catania</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
-        <is>
-          <t>Catania</t>
-        </is>
-      </c>
-      <c r="H130" t="inlineStr">
         <is>
           <t>Orazio Arancio</t>
         </is>
@@ -5857,20 +5207,15 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Sicilia - P02</t>
+          <t>Sicilia - U05</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Sicilia - U05</t>
+          <t>Siracusa</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
-        <is>
-          <t>Siracusa</t>
-        </is>
-      </c>
-      <c r="H131" t="inlineStr">
         <is>
           <t>Paolo Amenta</t>
         </is>
@@ -5899,20 +5244,15 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Sicilia - P02</t>
+          <t>Sicilia - U06</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Sicilia - U06</t>
+          <t>Messina</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
-        <is>
-          <t>Messina</t>
-        </is>
-      </c>
-      <c r="H132" t="inlineStr">
         <is>
           <t>Antonia Russo</t>
         </is>
@@ -5941,20 +5281,15 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Toscana - P01</t>
+          <t>Toscana - U01</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Toscana - U01</t>
+          <t>Arezzo</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
-        <is>
-          <t>Arezzo</t>
-        </is>
-      </c>
-      <c r="H133" t="inlineStr">
         <is>
           <t>Silvio Franceschelli</t>
         </is>
@@ -5983,20 +5318,15 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Toscana - P01</t>
+          <t>Toscana - U02</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Toscana - U02</t>
+          <t>Livorno</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
-        <is>
-          <t>Livorno</t>
-        </is>
-      </c>
-      <c r="H134" t="inlineStr">
         <is>
           <t>Andrea Marcucci</t>
         </is>
@@ -6025,20 +5355,15 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Toscana - P01</t>
+          <t>Toscana - U03</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Toscana - U03</t>
+          <t>Prato</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
-        <is>
-          <t>Prato</t>
-        </is>
-      </c>
-      <c r="H135" t="inlineStr">
         <is>
           <t>Anna Graziani</t>
         </is>
@@ -6067,20 +5392,15 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Toscana - P01</t>
+          <t>Toscana - U04</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Toscana - U04</t>
+          <t>Firenze</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
-        <is>
-          <t>Firenze</t>
-        </is>
-      </c>
-      <c r="H136" t="inlineStr">
         <is>
           <t>Ilaria Cucchi</t>
         </is>
@@ -6109,21 +5429,16 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F137" t="inlineStr">
-        <is>
           <t>Trentino-Alto Adige/Südtirol -
 U01</t>
         </is>
       </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Trento</t>
+        </is>
+      </c>
       <c r="G137" t="inlineStr">
-        <is>
-          <t>Trento</t>
-        </is>
-      </c>
-      <c r="H137" t="inlineStr">
         <is>
           <t>Paolo Patton</t>
         </is>
@@ -6152,21 +5467,16 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F138" t="inlineStr">
-        <is>
           <t>Trentino-Alto Adige/Südtirol -
 U02</t>
         </is>
       </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Rovereto</t>
+        </is>
+      </c>
       <c r="G138" t="inlineStr">
-        <is>
-          <t>Rovereto</t>
-        </is>
-      </c>
-      <c r="H138" t="inlineStr">
         <is>
           <t>Donatella Conzatti</t>
         </is>
@@ -6195,21 +5505,16 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F139" t="inlineStr">
-        <is>
           <t>Trentino-Alto Adige/Südtirol -
 U03</t>
         </is>
       </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Pergine Valsugana</t>
+        </is>
+      </c>
       <c r="G139" t="inlineStr">
-        <is>
-          <t>Pergine Valsugana</t>
-        </is>
-      </c>
-      <c r="H139" t="inlineStr">
         <is>
           <t>Michele Sartori</t>
         </is>
@@ -6238,21 +5543,16 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F140" t="inlineStr">
-        <is>
           <t>Trentino-Alto Adige/Südtirol -
 U04</t>
         </is>
       </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Bolzano/Bozen</t>
+        </is>
+      </c>
       <c r="G140" t="inlineStr">
-        <is>
-          <t>Bolzano/Bozen</t>
-        </is>
-      </c>
-      <c r="H140" t="inlineStr">
         <is>
           <t>Luigi Spagnolli</t>
         </is>
@@ -6281,21 +5581,16 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F141" t="inlineStr">
-        <is>
           <t>Trentino-Alto Adige/Südtirol -
 U05</t>
         </is>
       </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Merano/Meran</t>
+        </is>
+      </c>
       <c r="G141" t="inlineStr">
-        <is>
-          <t>Merano/Meran</t>
-        </is>
-      </c>
-      <c r="H141" t="inlineStr">
         <is>
           <t>Daniela Rossi</t>
         </is>
@@ -6324,21 +5619,16 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F142" t="inlineStr">
-        <is>
           <t>Trentino-Alto Adige/Südtirol -
 U06</t>
         </is>
       </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>Bressanone/Brixen</t>
+        </is>
+      </c>
       <c r="G142" t="inlineStr">
-        <is>
-          <t>Bressanone/Brixen</t>
-        </is>
-      </c>
-      <c r="H142" t="inlineStr">
         <is>
           <t>Renate Prader</t>
         </is>
@@ -6367,20 +5657,15 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Umbria - P01</t>
+          <t>Umbria - U01</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Umbria - U01</t>
+          <t>Perugia</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
-        <is>
-          <t>Perugia</t>
-        </is>
-      </c>
-      <c r="H143" t="inlineStr">
         <is>
           <t>Federico Novelli</t>
         </is>
@@ -6409,21 +5694,16 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F144" t="inlineStr">
-        <is>
           <t>Valle d'aosta/Vallée d'Aoste -
 U01</t>
         </is>
       </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Aosta</t>
+        </is>
+      </c>
       <c r="G144" t="inlineStr">
-        <is>
-          <t>Aosta</t>
-        </is>
-      </c>
-      <c r="H144" t="inlineStr">
         <is>
           <t>Patrick Vesan</t>
         </is>
@@ -6452,20 +5732,15 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Veneto - P01</t>
+          <t>Veneto - U01</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Veneto - U01</t>
+          <t>Venezia</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
-        <is>
-          <t>Venezia</t>
-        </is>
-      </c>
-      <c r="H145" t="inlineStr">
         <is>
           <t>Michele Moniato</t>
         </is>
@@ -6494,20 +5769,15 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Veneto - P01</t>
+          <t>Veneto - U02</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Veneto - U02</t>
+          <t>Treviso</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
-        <is>
-          <t>Treviso</t>
-        </is>
-      </c>
-      <c r="H146" t="inlineStr">
         <is>
           <t>Paolo Galeano</t>
         </is>
@@ -6536,20 +5806,15 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Veneto - P02</t>
+          <t>Veneto - U03</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Veneto - U03</t>
+          <t>Padova</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
-        <is>
-          <t>Padova</t>
-        </is>
-      </c>
-      <c r="H147" t="inlineStr">
         <is>
           <t>Emanuele Alecci</t>
         </is>
@@ -6578,20 +5843,15 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Veneto - P02</t>
+          <t>Veneto - U04</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Veneto - U04</t>
+          <t>Vicenza</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
-        <is>
-          <t>Vicenza</t>
-        </is>
-      </c>
-      <c r="H148" t="inlineStr">
         <is>
           <t>Claudia Longhi</t>
         </is>
@@ -6620,20 +5880,15 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Veneto - P02</t>
+          <t>Veneto - U05</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Veneto - U05</t>
+          <t>Verona</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
-        <is>
-          <t>Verona</t>
-        </is>
-      </c>
-      <c r="H149" t="inlineStr">
         <is>
           <t>Anna Maria Sterchele</t>
         </is>
@@ -6662,20 +5917,15 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Abruzzo - P01</t>
+          <t>Abruzzo - U01</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Abruzzo - U01</t>
+          <t>Pescara</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
-        <is>
-          <t>Pescara</t>
-        </is>
-      </c>
-      <c r="H150" t="inlineStr">
         <is>
           <t>Isidoro Malandra</t>
         </is>
@@ -6704,20 +5954,15 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Basilicata - P01</t>
+          <t>Basilicata - U01</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Basilicata - U01</t>
+          <t>Potenza</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
-        <is>
-          <t>Potenza</t>
-        </is>
-      </c>
-      <c r="H151" t="inlineStr">
         <is>
           <t>Antonio Materdomini</t>
         </is>
@@ -6746,20 +5991,15 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Calabria - P01</t>
+          <t>Calabria - U01</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Calabria - U01</t>
+          <t>Corigliano-Rossano</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
-        <is>
-          <t>Corigliano-Rossano</t>
-        </is>
-      </c>
-      <c r="H152" t="inlineStr">
         <is>
           <t>Maria Saladino</t>
         </is>
@@ -6788,20 +6028,15 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Calabria - P01</t>
+          <t>Calabria - U02</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Calabria - U02</t>
+          <t>Reggio di Calabria</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
-        <is>
-          <t>Reggio di Calabria</t>
-        </is>
-      </c>
-      <c r="H153" t="inlineStr">
         <is>
           <t>Giuseppe Auddino</t>
         </is>
@@ -6830,20 +6065,15 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Campania - P02</t>
+          <t>Campania - U01</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>Campania - U01</t>
+          <t>Caserta</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
-        <is>
-          <t>Caserta</t>
-        </is>
-      </c>
-      <c r="H154" t="inlineStr">
         <is>
           <t>Antonio Del Monaco</t>
         </is>
@@ -6872,20 +6102,15 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Campania - P02</t>
+          <t>Campania - U02</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Campania - U02</t>
+          <t>Benevento</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
-        <is>
-          <t>Benevento</t>
-        </is>
-      </c>
-      <c r="H155" t="inlineStr">
         <is>
           <t>Maura Sarno</t>
         </is>
@@ -6914,20 +6139,15 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Campania - P02</t>
+          <t>Campania - U03</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Campania - U03</t>
+          <t>Salerno</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
-        <is>
-          <t>Salerno</t>
-        </is>
-      </c>
-      <c r="H156" t="inlineStr">
         <is>
           <t>Francesco Castiello</t>
         </is>
@@ -6956,20 +6176,15 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Campania - P01</t>
+          <t>Campania - U04</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Campania - U04</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
-        <is>
-          <t>Napoli</t>
-        </is>
-      </c>
-      <c r="H157" t="inlineStr">
         <is>
           <t>Ada Lopreiato</t>
         </is>
@@ -6998,20 +6213,15 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Campania - P01</t>
+          <t>Campania - U05</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Campania - U05</t>
+          <t>Giugliano in Campania</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
-        <is>
-          <t>Giugliano in Campania</t>
-        </is>
-      </c>
-      <c r="H158" t="inlineStr">
         <is>
           <t>Maria Domenica Castellone</t>
         </is>
@@ -7040,20 +6250,15 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Campania - P01</t>
+          <t>Campania - U06</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Campania - U06</t>
+          <t>Torre del Greco</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
-        <is>
-          <t>Torre del Greco</t>
-        </is>
-      </c>
-      <c r="H159" t="inlineStr">
         <is>
           <t>Orfeo Mazzella</t>
         </is>
@@ -7082,20 +6287,15 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Campania - P01</t>
+          <t>Campania - U07</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Campania - U07</t>
+          <t>Acerra</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
-        <is>
-          <t>Acerra</t>
-        </is>
-      </c>
-      <c r="H160" t="inlineStr">
         <is>
           <t>Raffaele De Rosa</t>
         </is>
@@ -7124,20 +6324,15 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Emilia-Romagna - P01</t>
+          <t>Emilia-Romagna - U01</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>Emilia-Romagna - U01</t>
+          <t>Parma</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
-        <is>
-          <t>Parma</t>
-        </is>
-      </c>
-      <c r="H161" t="inlineStr">
         <is>
           <t>Gabriella Blancato</t>
         </is>
@@ -7166,20 +6361,15 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Emilia-Romagna - P01</t>
+          <t>Emilia-Romagna - U02</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>Emilia-Romagna - U02</t>
+          <t>Modena</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
-        <is>
-          <t>Modena</t>
-        </is>
-      </c>
-      <c r="H162" t="inlineStr">
         <is>
           <t>Maria Laura Mantovani</t>
         </is>
@@ -7208,20 +6398,15 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Emilia-Romagna - P02</t>
+          <t>Emilia-Romagna - U03</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Emilia-Romagna - U03</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
-        <is>
-          <t>Bologna</t>
-        </is>
-      </c>
-      <c r="H163" t="inlineStr">
         <is>
           <t>Fabio Selleri</t>
         </is>
@@ -7250,20 +6435,15 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Emilia-Romagna - P02</t>
+          <t>Emilia-Romagna - U04</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Emilia-Romagna - U04</t>
+          <t>Ravenna</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
-        <is>
-          <t>Ravenna</t>
-        </is>
-      </c>
-      <c r="H164" t="inlineStr">
         <is>
           <t>Anastasia Ruggeri</t>
         </is>
@@ -7292,20 +6472,15 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Emilia-Romagna - P02</t>
+          <t>Emilia-Romagna - U05</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>Emilia-Romagna - U05</t>
+          <t>Rimini</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
-        <is>
-          <t>Rimini</t>
-        </is>
-      </c>
-      <c r="H165" t="inlineStr">
         <is>
           <t>Marco Croatti</t>
         </is>
@@ -7334,20 +6509,15 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Friuli-Venezia Giulia - P01</t>
+          <t>Friuli-Venezia Giulia - U01</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>Friuli-Venezia Giulia - U01</t>
+          <t>Trieste</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
-        <is>
-          <t>Trieste</t>
-        </is>
-      </c>
-      <c r="H166" t="inlineStr">
         <is>
           <t>Stefano Patuanelli</t>
         </is>
@@ -7376,20 +6546,15 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Lazio - P02</t>
+          <t>Lazio - U01</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>Lazio - U01</t>
+          <t>Viterbo</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
-        <is>
-          <t>Viterbo</t>
-        </is>
-      </c>
-      <c r="H167" t="inlineStr">
         <is>
           <t>Massimo Erbetti</t>
         </is>
@@ -7418,20 +6583,15 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Lazio - P01</t>
+          <t>Lazio - U02</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>Lazio - U02</t>
+          <t>Roma: Municipio XIV</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
-        <is>
-          <t>Roma: Municipio XIV</t>
-        </is>
-      </c>
-      <c r="H168" t="inlineStr">
         <is>
           <t>Alessandra Maiorino</t>
         </is>
@@ -7460,20 +6620,15 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Lazio - P01</t>
+          <t>Lazio - U03</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>Lazio - U03</t>
+          <t>Roma: Municipio V</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
-        <is>
-          <t>Roma: Municipio V</t>
-        </is>
-      </c>
-      <c r="H169" t="inlineStr">
         <is>
           <t>Giuseppe Cracchiolo</t>
         </is>
@@ -7502,20 +6657,15 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Lazio - P01</t>
+          <t>Lazio - U04</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>Lazio - U04</t>
+          <t>Roma: Municipio VII</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
-        <is>
-          <t>Roma: Municipio VII</t>
-        </is>
-      </c>
-      <c r="H170" t="inlineStr">
         <is>
           <t>Giulia Lupo</t>
         </is>
@@ -7544,20 +6694,15 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Lazio - P02</t>
+          <t>Lazio - U05</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>Lazio - U05</t>
+          <t>Guidonia Montecelio</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
-        <is>
-          <t>Guidonia Montecelio</t>
-        </is>
-      </c>
-      <c r="H171" t="inlineStr">
         <is>
           <t>Stefano Chirico</t>
         </is>
@@ -7586,20 +6731,15 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Lazio - P02</t>
+          <t>Lazio - U06</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>Lazio - U06</t>
+          <t>Latina</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
-        <is>
-          <t>Latina</t>
-        </is>
-      </c>
-      <c r="H172" t="inlineStr">
         <is>
           <t>Anna Sacchetti</t>
         </is>
@@ -7628,21 +6768,16 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Liguria - P01</t>
+          <t>Liguria - U01</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
-        <is>
-          <t>Liguria - U01</t>
-        </is>
-      </c>
-      <c r="G173" t="inlineStr">
         <is>
           <t>Genova: Municipio VII -
 Ponente</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
+      <c r="G173" t="inlineStr">
         <is>
           <t>Enrico Nadasi</t>
         </is>
@@ -7671,20 +6806,15 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Liguria - P01</t>
+          <t>Liguria - U02</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>Liguria - U02</t>
+          <t>La Spezia</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
-        <is>
-          <t>La Spezia</t>
-        </is>
-      </c>
-      <c r="H174" t="inlineStr">
         <is>
           <t>Barbara Tronchi</t>
         </is>
@@ -7713,20 +6843,15 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Lombardia - P01</t>
+          <t>Lombardia - U01</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>Lombardia - U01</t>
+          <t>Varese</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
-        <is>
-          <t>Varese</t>
-        </is>
-      </c>
-      <c r="H175" t="inlineStr">
         <is>
           <t>Francesca Bonoldi</t>
         </is>
@@ -7755,20 +6880,15 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Lombardia - P01</t>
+          <t>Lombardia - U02</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>Lombardia - U02</t>
+          <t>Como</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
-        <is>
-          <t>Como</t>
-        </is>
-      </c>
-      <c r="H176" t="inlineStr">
         <is>
           <t>Tommaso Leoni</t>
         </is>
@@ -7797,21 +6917,16 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Lombardia - P02</t>
+          <t>Lombardia - U03</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
-        <is>
-          <t>Lombardia - U03</t>
-        </is>
-      </c>
-      <c r="G177" t="inlineStr">
         <is>
           <t>Milano: NIL 21 - Buenos Aires -
 Venezia</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
+      <c r="G177" t="inlineStr">
         <is>
           <t>Eugenio Casalino</t>
         </is>
@@ -7840,20 +6955,15 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Lombardia - P02</t>
+          <t>Lombardia - U04</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>Lombardia - U04</t>
+          <t>Sesto San Giovanni</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
-        <is>
-          <t>Sesto San Giovanni</t>
-        </is>
-      </c>
-      <c r="H178" t="inlineStr">
         <is>
           <t>Elena Sironi</t>
         </is>
@@ -7882,20 +6992,15 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Lombardia - P02</t>
+          <t>Lombardia - U05</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>Lombardia - U05</t>
+          <t>Cologno Monzese</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
-        <is>
-          <t>Cologno Monzese</t>
-        </is>
-      </c>
-      <c r="H179" t="inlineStr">
         <is>
           <t>Paola Pizzighini</t>
         </is>
@@ -7924,20 +7029,15 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Lombardia - P01</t>
+          <t>Lombardia - U06</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>Lombardia - U06</t>
+          <t>Monza</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
-        <is>
-          <t>Monza</t>
-        </is>
-      </c>
-      <c r="H180" t="inlineStr">
         <is>
           <t>Bruno Marton</t>
         </is>
@@ -7966,20 +7066,15 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Lombardia - P03</t>
+          <t>Lombardia - U07</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>Lombardia - U07</t>
+          <t>Bergamo</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
-        <is>
-          <t>Bergamo</t>
-        </is>
-      </c>
-      <c r="H181" t="inlineStr">
         <is>
           <t>Umberto Di Franco</t>
         </is>
@@ -8008,20 +7103,15 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Lombardia - P03</t>
+          <t>Lombardia - U08</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>Lombardia - U08</t>
+          <t>Brescia</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
-        <is>
-          <t>Brescia</t>
-        </is>
-      </c>
-      <c r="H182" t="inlineStr">
         <is>
           <t>Anna Maria Bonettini</t>
         </is>
@@ -8050,20 +7140,15 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Lombardia - P03</t>
+          <t>Lombardia - U09</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>Lombardia - U09</t>
+          <t>Treviglio</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
-        <is>
-          <t>Treviglio</t>
-        </is>
-      </c>
-      <c r="H183" t="inlineStr">
         <is>
           <t>Mariarosa Ghitti</t>
         </is>
@@ -8092,20 +7177,15 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Lombardia - P02</t>
+          <t>Lombardia - U10</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>Lombardia - U10</t>
+          <t>Pavia</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
-        <is>
-          <t>Pavia</t>
-        </is>
-      </c>
-      <c r="H184" t="inlineStr">
         <is>
           <t>Silvia Baldina</t>
         </is>
@@ -8134,20 +7214,15 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Lombardia - P03</t>
+          <t>Lombardia - U11</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>Lombardia - U11</t>
+          <t>Cremona</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
-        <is>
-          <t>Cremona</t>
-        </is>
-      </c>
-      <c r="H185" t="inlineStr">
         <is>
           <t>Sabina Lupo</t>
         </is>
@@ -8176,20 +7251,15 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Marche - P01</t>
+          <t>Marche - U01</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>Marche - U01</t>
+          <t>Ascoli Piceno</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
-        <is>
-          <t>Ascoli Piceno</t>
-        </is>
-      </c>
-      <c r="H186" t="inlineStr">
         <is>
           <t>Roberto Cataldi</t>
         </is>
@@ -8218,20 +7288,15 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Marche - P01</t>
+          <t>Marche - U02</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>Marche - U02</t>
+          <t>Ancona</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
-        <is>
-          <t>Ancona</t>
-        </is>
-      </c>
-      <c r="H187" t="inlineStr">
         <is>
           <t>Samuela Melini</t>
         </is>
@@ -8260,20 +7325,15 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Molise - P01</t>
+          <t>Molise - U01</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>Molise - U01</t>
+          <t>Campobasso</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
-        <is>
-          <t>Campobasso</t>
-        </is>
-      </c>
-      <c r="H188" t="inlineStr">
         <is>
           <t>Ottavio Balducci</t>
         </is>
@@ -8302,20 +7362,15 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Piemonte - P01</t>
+          <t>Piemonte - U01</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>Piemonte - U01</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
-      <c r="H189" t="inlineStr">
         <is>
           <t>Alberto Unia</t>
         </is>
@@ -8344,20 +7399,15 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Piemonte - P01</t>
+          <t>Piemonte - U02</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>Piemonte - U02</t>
+          <t>Moncalieri</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
-        <is>
-          <t>Moncalieri</t>
-        </is>
-      </c>
-      <c r="H190" t="inlineStr">
         <is>
           <t>Elisa Pirro</t>
         </is>
@@ -8386,20 +7436,15 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Piemonte - P02</t>
+          <t>Piemonte - U03</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>Piemonte - U03</t>
+          <t>Novara</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
-        <is>
-          <t>Novara</t>
-        </is>
-      </c>
-      <c r="H191" t="inlineStr">
         <is>
           <t>Luca Zacchero</t>
         </is>
@@ -8428,20 +7473,15 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Piemonte - P02</t>
+          <t>Piemonte - U04</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>Piemonte - U04</t>
+          <t>Alessandria</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
-        <is>
-          <t>Alessandria</t>
-        </is>
-      </c>
-      <c r="H192" t="inlineStr">
         <is>
           <t>Mariassunta detta Susy
 Matrisciano</t>
@@ -8471,20 +7511,15 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Piemonte - P02</t>
+          <t>Piemonte - U05</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>Piemonte - U05</t>
+          <t>Cuneo</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
-        <is>
-          <t>Cuneo</t>
-        </is>
-      </c>
-      <c r="H193" t="inlineStr">
         <is>
           <t>Roberto Falcone</t>
         </is>
@@ -8513,20 +7548,15 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Puglia - P01</t>
+          <t>Puglia - U01</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>Puglia - U01</t>
+          <t>Foggia</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
-        <is>
-          <t>Foggia</t>
-        </is>
-      </c>
-      <c r="H194" t="inlineStr">
         <is>
           <t>Gisella Naturale</t>
         </is>
@@ -8555,20 +7585,15 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Puglia - P01</t>
+          <t>Puglia - U02</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>Puglia - U02</t>
+          <t>Andria</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
-        <is>
-          <t>Andria</t>
-        </is>
-      </c>
-      <c r="H195" t="inlineStr">
         <is>
           <t>Michele Coratella</t>
         </is>
@@ -8597,20 +7622,15 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Puglia - P01</t>
+          <t>Puglia - U03</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>Puglia - U03</t>
+          <t>Bari</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
-        <is>
-          <t>Bari</t>
-        </is>
-      </c>
-      <c r="H196" t="inlineStr">
         <is>
           <t>Maria La Ghezza</t>
         </is>
@@ -8639,20 +7659,15 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Puglia - P01</t>
+          <t>Puglia - U04</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>Puglia - U04</t>
+          <t>Taranto</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
-        <is>
-          <t>Taranto</t>
-        </is>
-      </c>
-      <c r="H197" t="inlineStr">
         <is>
           <t>Roberto Fusco</t>
         </is>
@@ -8681,20 +7696,15 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Puglia - P01</t>
+          <t>Puglia - U05</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>Puglia - U05</t>
+          <t>Lecce</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
-        <is>
-          <t>Lecce</t>
-        </is>
-      </c>
-      <c r="H198" t="inlineStr">
         <is>
           <t>Trevisi Antonio</t>
         </is>
@@ -8723,20 +7733,15 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Sardegna - P01</t>
+          <t>Sardegna - U01</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>Sardegna - U01</t>
+          <t>Cagliari</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
-        <is>
-          <t>Cagliari</t>
-        </is>
-      </c>
-      <c r="H199" t="inlineStr">
         <is>
           <t>Sabrina Licheri</t>
         </is>
@@ -8765,20 +7770,15 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Sardegna - P01</t>
+          <t>Sardegna - U02</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>Sardegna - U02</t>
+          <t>Sassari</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
-        <is>
-          <t>Sassari</t>
-        </is>
-      </c>
-      <c r="H200" t="inlineStr">
         <is>
           <t>Marcello Cherchi</t>
         </is>
@@ -8807,20 +7807,15 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Sicilia - P01</t>
+          <t>Sicilia - U01</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>Sicilia - U01</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
-        <is>
-          <t>Palermo</t>
-        </is>
-      </c>
-      <c r="H201" t="inlineStr">
         <is>
           <t>Dolores Bevilacqua</t>
         </is>
@@ -8849,20 +7844,15 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Sicilia - P01</t>
+          <t>Sicilia - U02</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>Sicilia - U02</t>
+          <t>Marsala</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
-        <is>
-          <t>Marsala</t>
-        </is>
-      </c>
-      <c r="H202" t="inlineStr">
         <is>
           <t>Giuseppe Chiazzese</t>
         </is>
@@ -8891,20 +7881,15 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Sicilia - P01</t>
+          <t>Sicilia - U03</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>Sicilia - U03</t>
+          <t>Gela</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
-        <is>
-          <t>Gela</t>
-        </is>
-      </c>
-      <c r="H203" t="inlineStr">
         <is>
           <t>Pietro Lorefice</t>
         </is>
@@ -8933,20 +7918,15 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Sicilia - P02</t>
+          <t>Sicilia - U04</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>Sicilia - U04</t>
+          <t>Catania</t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
-        <is>
-          <t>Catania</t>
-        </is>
-      </c>
-      <c r="H204" t="inlineStr">
         <is>
           <t>Giuseppina Rannone</t>
         </is>
@@ -8975,20 +7955,15 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Sicilia - P02</t>
+          <t>Sicilia - U05</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>Sicilia - U05</t>
+          <t>Siracusa</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
-        <is>
-          <t>Siracusa</t>
-        </is>
-      </c>
-      <c r="H205" t="inlineStr">
         <is>
           <t>Giuseppe Pisani</t>
         </is>
@@ -9017,20 +7992,15 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Sicilia - P02</t>
+          <t>Sicilia - U06</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>Sicilia - U06</t>
+          <t>Messina</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
-        <is>
-          <t>Messina</t>
-        </is>
-      </c>
-      <c r="H206" t="inlineStr">
         <is>
           <t>Barbara Floridia</t>
         </is>
@@ -9059,20 +8029,15 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Toscana - P01</t>
+          <t>Toscana - U01</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>Toscana - U01</t>
+          <t>Arezzo</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
-        <is>
-          <t>Arezzo</t>
-        </is>
-      </c>
-      <c r="H207" t="inlineStr">
         <is>
           <t>Andrea Barbagli</t>
         </is>
@@ -9101,20 +8066,15 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Toscana - P01</t>
+          <t>Toscana - U02</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>Toscana - U02</t>
+          <t>Livorno</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
-        <is>
-          <t>Livorno</t>
-        </is>
-      </c>
-      <c r="H208" t="inlineStr">
         <is>
           <t>Valeria Marrocco</t>
         </is>
@@ -9143,20 +8103,15 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Toscana - P01</t>
+          <t>Toscana - U03</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>Toscana - U03</t>
+          <t>Prato</t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
-        <is>
-          <t>Prato</t>
-        </is>
-      </c>
-      <c r="H209" t="inlineStr">
         <is>
           <t>Manuela Bellandi</t>
         </is>
@@ -9185,20 +8140,15 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Toscana - P01</t>
+          <t>Toscana - U04</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>Toscana - U04</t>
+          <t>Firenze</t>
         </is>
       </c>
       <c r="G210" t="inlineStr">
-        <is>
-          <t>Firenze</t>
-        </is>
-      </c>
-      <c r="H210" t="inlineStr">
         <is>
           <t>Claudio Cantella</t>
         </is>
@@ -9227,21 +8177,16 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F211" t="inlineStr">
-        <is>
           <t>Trentino-Alto Adige/Südtirol -
 U01</t>
         </is>
       </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>Trento</t>
+        </is>
+      </c>
       <c r="G211" t="inlineStr">
-        <is>
-          <t>Trento</t>
-        </is>
-      </c>
-      <c r="H211" t="inlineStr">
         <is>
           <t>Paolo Minotto</t>
         </is>
@@ -9270,21 +8215,16 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F212" t="inlineStr">
-        <is>
           <t>Trentino-Alto Adige/Südtirol -
 U02</t>
         </is>
       </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>Rovereto</t>
+        </is>
+      </c>
       <c r="G212" t="inlineStr">
-        <is>
-          <t>Rovereto</t>
-        </is>
-      </c>
-      <c r="H212" t="inlineStr">
         <is>
           <t>Giulio Angelini</t>
         </is>
@@ -9313,21 +8253,16 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F213" t="inlineStr">
-        <is>
           <t>Trentino-Alto Adige/Südtirol -
 U03</t>
         </is>
       </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>Pergine Valsugana</t>
+        </is>
+      </c>
       <c r="G213" t="inlineStr">
-        <is>
-          <t>Pergine Valsugana</t>
-        </is>
-      </c>
-      <c r="H213" t="inlineStr">
         <is>
           <t>Rosa Michela Rizzi</t>
         </is>
@@ -9356,21 +8291,16 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F214" t="inlineStr">
-        <is>
           <t>Trentino-Alto Adige/Südtirol -
 U04</t>
         </is>
       </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>Bolzano/Bozen</t>
+        </is>
+      </c>
       <c r="G214" t="inlineStr">
-        <is>
-          <t>Bolzano/Bozen</t>
-        </is>
-      </c>
-      <c r="H214" t="inlineStr">
         <is>
           <t>Renzo Roncat</t>
         </is>
@@ -9399,21 +8329,16 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F215" t="inlineStr">
-        <is>
           <t>Trentino-Alto Adige/Südtirol -
 U05</t>
         </is>
       </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>Merano/Meran</t>
+        </is>
+      </c>
       <c r="G215" t="inlineStr">
-        <is>
-          <t>Merano/Meran</t>
-        </is>
-      </c>
-      <c r="H215" t="inlineStr">
         <is>
           <t>Francesca Morrone</t>
         </is>
@@ -9442,21 +8367,16 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F216" t="inlineStr">
-        <is>
           <t>Trentino-Alto Adige/Südtirol -
 U06</t>
         </is>
       </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>Bressanone/Brixen</t>
+        </is>
+      </c>
       <c r="G216" t="inlineStr">
-        <is>
-          <t>Bressanone/Brixen</t>
-        </is>
-      </c>
-      <c r="H216" t="inlineStr">
         <is>
           <t>Markus Falk</t>
         </is>
@@ -9485,20 +8405,15 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Umbria - P01</t>
+          <t>Umbria - U01</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>Umbria - U01</t>
+          <t>Perugia</t>
         </is>
       </c>
       <c r="G217" t="inlineStr">
-        <is>
-          <t>Perugia</t>
-        </is>
-      </c>
-      <c r="H217" t="inlineStr">
         <is>
           <t>Federico Pasculli</t>
         </is>
@@ -9527,21 +8442,16 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F218" t="inlineStr">
-        <is>
           <t>Valle d'aosta/Vallée d'Aoste -
 U01</t>
         </is>
       </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>Aosta</t>
+        </is>
+      </c>
       <c r="G218" t="inlineStr">
-        <is>
-          <t>Aosta</t>
-        </is>
-      </c>
-      <c r="H218" t="inlineStr">
         <is>
           <t>Erika Guishardaz</t>
         </is>
@@ -9570,20 +8480,15 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Veneto - P01</t>
+          <t>Veneto - U01</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>Veneto - U01</t>
+          <t>Venezia</t>
         </is>
       </c>
       <c r="G219" t="inlineStr">
-        <is>
-          <t>Venezia</t>
-        </is>
-      </c>
-      <c r="H219" t="inlineStr">
         <is>
           <t>Sara Giaggio</t>
         </is>
@@ -9612,20 +8517,15 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Veneto - P01</t>
+          <t>Veneto - U02</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>Veneto - U02</t>
+          <t>Treviso</t>
         </is>
       </c>
       <c r="G220" t="inlineStr">
-        <is>
-          <t>Treviso</t>
-        </is>
-      </c>
-      <c r="H220" t="inlineStr">
         <is>
           <t>Flavio Baldan</t>
         </is>
@@ -9654,20 +8554,15 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Veneto - P02</t>
+          <t>Veneto - U03</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>Veneto - U03</t>
+          <t>Padova</t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
-        <is>
-          <t>Padova</t>
-        </is>
-      </c>
-      <c r="H221" t="inlineStr">
         <is>
           <t>Giorgio Burlini</t>
         </is>
@@ -9696,20 +8591,15 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Veneto - P02</t>
+          <t>Veneto - U04</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>Veneto - U04</t>
+          <t>Vicenza</t>
         </is>
       </c>
       <c r="G222" t="inlineStr">
-        <is>
-          <t>Vicenza</t>
-        </is>
-      </c>
-      <c r="H222" t="inlineStr">
         <is>
           <t>Barbara Guidolin</t>
         </is>
@@ -9738,20 +8628,15 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Veneto - P02</t>
+          <t>Veneto - U05</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>Veneto - U05</t>
+          <t>Verona</t>
         </is>
       </c>
       <c r="G223" t="inlineStr">
-        <is>
-          <t>Verona</t>
-        </is>
-      </c>
-      <c r="H223" t="inlineStr">
         <is>
           <t>Maura Zambon</t>
         </is>
@@ -9780,20 +8665,15 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Abruzzo - P01</t>
+          <t>Abruzzo - U01</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>Abruzzo - U01</t>
+          <t>Pescara</t>
         </is>
       </c>
       <c r="G224" t="inlineStr">
-        <is>
-          <t>Pescara</t>
-        </is>
-      </c>
-      <c r="H224" t="inlineStr">
         <is>
           <t>Gianfranco Giuliante</t>
         </is>
@@ -9822,20 +8702,15 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Basilicata - P01</t>
+          <t>Basilicata - U01</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>Basilicata - U01</t>
+          <t>Potenza</t>
         </is>
       </c>
       <c r="G225" t="inlineStr">
-        <is>
-          <t>Potenza</t>
-        </is>
-      </c>
-      <c r="H225" t="inlineStr">
         <is>
           <t>Mariangela Guerra</t>
         </is>
@@ -9864,20 +8739,15 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Calabria - P01</t>
+          <t>Calabria - U01</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>Calabria - U01</t>
+          <t>Corigliano-Rossano</t>
         </is>
       </c>
       <c r="G226" t="inlineStr">
-        <is>
-          <t>Corigliano-Rossano</t>
-        </is>
-      </c>
-      <c r="H226" t="inlineStr">
         <is>
           <t>Daniela Ventura</t>
         </is>
@@ -9906,20 +8776,15 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Calabria - P01</t>
+          <t>Calabria - U02</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>Calabria - U02</t>
+          <t>Reggio di Calabria</t>
         </is>
       </c>
       <c r="G227" t="inlineStr">
-        <is>
-          <t>Reggio di Calabria</t>
-        </is>
-      </c>
-      <c r="H227" t="inlineStr">
         <is>
           <t>Agostino Siviglia</t>
         </is>
@@ -9948,20 +8813,15 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Campania - P02</t>
+          <t>Campania - U01</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>Campania - U01</t>
+          <t>Caserta</t>
         </is>
       </c>
       <c r="G228" t="inlineStr">
-        <is>
-          <t>Caserta</t>
-        </is>
-      </c>
-      <c r="H228" t="inlineStr">
         <is>
           <t>Ovidio Marzaioli</t>
         </is>
@@ -9990,20 +8850,15 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Campania - P02</t>
+          <t>Campania - U02</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>Campania - U02</t>
+          <t>Benevento</t>
         </is>
       </c>
       <c r="G229" t="inlineStr">
-        <is>
-          <t>Benevento</t>
-        </is>
-      </c>
-      <c r="H229" t="inlineStr">
         <is>
           <t>Francesca Mite</t>
         </is>
@@ -10032,20 +8887,15 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Campania - P02</t>
+          <t>Campania - U03</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>Campania - U03</t>
+          <t>Salerno</t>
         </is>
       </c>
       <c r="G230" t="inlineStr">
-        <is>
-          <t>Salerno</t>
-        </is>
-      </c>
-      <c r="H230" t="inlineStr">
         <is>
           <t>Luigi Casciello</t>
         </is>
@@ -10074,20 +8924,15 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Campania - P01</t>
+          <t>Campania - U04</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>Campania - U04</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="G231" t="inlineStr">
-        <is>
-          <t>Napoli</t>
-        </is>
-      </c>
-      <c r="H231" t="inlineStr">
         <is>
           <t>Peppe Russo</t>
         </is>
@@ -10116,20 +8961,15 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Campania - P01</t>
+          <t>Campania - U05</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>Campania - U05</t>
+          <t>Giugliano in Campania</t>
         </is>
       </c>
       <c r="G232" t="inlineStr">
-        <is>
-          <t>Giugliano in Campania</t>
-        </is>
-      </c>
-      <c r="H232" t="inlineStr">
         <is>
           <t>Vittoria Cristiano</t>
         </is>
@@ -10158,20 +8998,15 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Campania - P01</t>
+          <t>Campania - U06</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>Campania - U06</t>
+          <t>Torre del Greco</t>
         </is>
       </c>
       <c r="G233" t="inlineStr">
-        <is>
-          <t>Torre del Greco</t>
-        </is>
-      </c>
-      <c r="H233" t="inlineStr">
         <is>
           <t>Mario Scognamiglio</t>
         </is>
@@ -10200,20 +9035,15 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>Campania - P01</t>
+          <t>Campania - U07</t>
         </is>
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>Campania - U07</t>
+          <t>Acerra</t>
         </is>
       </c>
       <c r="G234" t="inlineStr">
-        <is>
-          <t>Acerra</t>
-        </is>
-      </c>
-      <c r="H234" t="inlineStr">
         <is>
           <t>Anita Di Palma</t>
         </is>
@@ -10242,20 +9072,15 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>Emilia-Romagna - P01</t>
+          <t>Emilia-Romagna - U01</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>Emilia-Romagna - U01</t>
+          <t>Parma</t>
         </is>
       </c>
       <c r="G235" t="inlineStr">
-        <is>
-          <t>Parma</t>
-        </is>
-      </c>
-      <c r="H235" t="inlineStr">
         <is>
           <t>Alessandro Sbalbi</t>
         </is>
@@ -10284,20 +9109,15 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>Emilia-Romagna - P01</t>
+          <t>Emilia-Romagna - U02</t>
         </is>
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>Emilia-Romagna - U02</t>
+          <t>Modena</t>
         </is>
       </c>
       <c r="G236" t="inlineStr">
-        <is>
-          <t>Modena</t>
-        </is>
-      </c>
-      <c r="H236" t="inlineStr">
         <is>
           <t>Chiara Caselgrandi</t>
         </is>
@@ -10326,20 +9146,15 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>Emilia-Romagna - P02</t>
+          <t>Emilia-Romagna - U03</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>Emilia-Romagna - U03</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="G237" t="inlineStr">
-        <is>
-          <t>Bologna</t>
-        </is>
-      </c>
-      <c r="H237" t="inlineStr">
         <is>
           <t>Marco Lombardo</t>
         </is>
@@ -10368,20 +9183,15 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>Emilia-Romagna - P02</t>
+          <t>Emilia-Romagna - U04</t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>Emilia-Romagna - U04</t>
+          <t>Ravenna</t>
         </is>
       </c>
       <c r="G238" t="inlineStr">
-        <is>
-          <t>Ravenna</t>
-        </is>
-      </c>
-      <c r="H238" t="inlineStr">
         <is>
           <t>Silvia Kranz</t>
         </is>
@@ -10410,20 +9220,15 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>Emilia-Romagna - P02</t>
+          <t>Emilia-Romagna - U05</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>Emilia-Romagna - U05</t>
+          <t>Rimini</t>
         </is>
       </c>
       <c r="G239" t="inlineStr">
-        <is>
-          <t>Rimini</t>
-        </is>
-      </c>
-      <c r="H239" t="inlineStr">
         <is>
           <t>Elena Leardini</t>
         </is>
@@ -10452,20 +9257,15 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>Friuli-Venezia Giulia - P01</t>
+          <t>Friuli-Venezia Giulia - U01</t>
         </is>
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>Friuli-Venezia Giulia - U01</t>
+          <t>Trieste</t>
         </is>
       </c>
       <c r="G240" t="inlineStr">
-        <is>
-          <t>Trieste</t>
-        </is>
-      </c>
-      <c r="H240" t="inlineStr">
         <is>
           <t>Giuliano Castenetto</t>
         </is>
@@ -10494,20 +9294,15 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>Lazio - P02</t>
+          <t>Lazio - U01</t>
         </is>
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>Lazio - U01</t>
+          <t>Viterbo</t>
         </is>
       </c>
       <c r="G241" t="inlineStr">
-        <is>
-          <t>Viterbo</t>
-        </is>
-      </c>
-      <c r="H241" t="inlineStr">
         <is>
           <t>Alessandro Sterpa</t>
         </is>
@@ -10536,20 +9331,15 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>Lazio - P01</t>
+          <t>Lazio - U02</t>
         </is>
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>Lazio - U02</t>
+          <t>Roma: Municipio XIV</t>
         </is>
       </c>
       <c r="G242" t="inlineStr">
-        <is>
-          <t>Roma: Municipio XIV</t>
-        </is>
-      </c>
-      <c r="H242" t="inlineStr">
         <is>
           <t>Carlo Calenda</t>
         </is>
@@ -10578,20 +9368,15 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>Lazio - P01</t>
+          <t>Lazio - U03</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>Lazio - U03</t>
+          <t>Roma: Municipio V</t>
         </is>
       </c>
       <c r="G243" t="inlineStr">
-        <is>
-          <t>Roma: Municipio V</t>
-        </is>
-      </c>
-      <c r="H243" t="inlineStr">
         <is>
           <t>Livia Pandolfi</t>
         </is>
@@ -10620,20 +9405,15 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>Lazio - P01</t>
+          <t>Lazio - U04</t>
         </is>
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>Lazio - U04</t>
+          <t>Roma: Municipio VII</t>
         </is>
       </c>
       <c r="G244" t="inlineStr">
-        <is>
-          <t>Roma: Municipio VII</t>
-        </is>
-      </c>
-      <c r="H244" t="inlineStr">
         <is>
           <t>Rita Iorio</t>
         </is>
@@ -10662,20 +9442,15 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>Lazio - P02</t>
+          <t>Lazio - U05</t>
         </is>
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>Lazio - U05</t>
+          <t>Guidonia Montecelio</t>
         </is>
       </c>
       <c r="G245" t="inlineStr">
-        <is>
-          <t>Guidonia Montecelio</t>
-        </is>
-      </c>
-      <c r="H245" t="inlineStr">
         <is>
           <t>Ileana Katia Piazzoni</t>
         </is>
@@ -10704,20 +9479,15 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>Lazio - P02</t>
+          <t>Lazio - U06</t>
         </is>
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>Lazio - U06</t>
+          <t>Latina</t>
         </is>
       </c>
       <c r="G246" t="inlineStr">
-        <is>
-          <t>Latina</t>
-        </is>
-      </c>
-      <c r="H246" t="inlineStr">
         <is>
           <t>Adamo Pantano</t>
         </is>
@@ -10746,21 +9516,16 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>Liguria - P01</t>
+          <t>Liguria - U01</t>
         </is>
       </c>
       <c r="F247" t="inlineStr">
-        <is>
-          <t>Liguria - U01</t>
-        </is>
-      </c>
-      <c r="G247" t="inlineStr">
         <is>
           <t>Genova: Municipio VII -
 Ponente</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
+      <c r="G247" t="inlineStr">
         <is>
           <t>Maria Caridi</t>
         </is>
@@ -10789,20 +9554,15 @@
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>Liguria - P01</t>
+          <t>Liguria - U02</t>
         </is>
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>Liguria - U02</t>
+          <t>La Spezia</t>
         </is>
       </c>
       <c r="G248" t="inlineStr">
-        <is>
-          <t>La Spezia</t>
-        </is>
-      </c>
-      <c r="H248" t="inlineStr">
         <is>
           <t>Michele Carrella</t>
         </is>
@@ -10831,20 +9591,15 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>Lombardia - P01</t>
+          <t>Lombardia - U01</t>
         </is>
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>Lombardia - U01</t>
+          <t>Varese</t>
         </is>
       </c>
       <c r="G249" t="inlineStr">
-        <is>
-          <t>Varese</t>
-        </is>
-      </c>
-      <c r="H249" t="inlineStr">
         <is>
           <t>Giusy Versace</t>
         </is>
@@ -10873,20 +9628,15 @@
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>Lombardia - P01</t>
+          <t>Lombardia - U02</t>
         </is>
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>Lombardia - U02</t>
+          <t>Como</t>
         </is>
       </c>
       <c r="G250" t="inlineStr">
-        <is>
-          <t>Como</t>
-        </is>
-      </c>
-      <c r="H250" t="inlineStr">
         <is>
           <t>Giuseppe Conti</t>
         </is>
@@ -10915,21 +9665,16 @@
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>Lombardia - P02</t>
+          <t>Lombardia - U03</t>
         </is>
       </c>
       <c r="F251" t="inlineStr">
-        <is>
-          <t>Lombardia - U03</t>
-        </is>
-      </c>
-      <c r="G251" t="inlineStr">
         <is>
           <t>Milano: NIL 21 - Buenos Aires -
 Venezia</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
+      <c r="G251" t="inlineStr">
         <is>
           <t>Ivan Scalfarotto</t>
         </is>
@@ -10958,20 +9703,15 @@
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>Lombardia - P02</t>
+          <t>Lombardia - U04</t>
         </is>
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>Lombardia - U04</t>
+          <t>Sesto San Giovanni</t>
         </is>
       </c>
       <c r="G252" t="inlineStr">
-        <is>
-          <t>Sesto San Giovanni</t>
-        </is>
-      </c>
-      <c r="H252" t="inlineStr">
         <is>
           <t>Tiziana Demma</t>
         </is>
@@ -11000,20 +9740,15 @@
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>Lombardia - P02</t>
+          <t>Lombardia - U05</t>
         </is>
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>Lombardia - U05</t>
+          <t>Cologno Monzese</t>
         </is>
       </c>
       <c r="G253" t="inlineStr">
-        <is>
-          <t>Cologno Monzese</t>
-        </is>
-      </c>
-      <c r="H253" t="inlineStr">
         <is>
           <t>Marco Malinverni</t>
         </is>
@@ -11042,20 +9777,15 @@
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>Lombardia - P01</t>
+          <t>Lombardia - U06</t>
         </is>
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>Lombardia - U06</t>
+          <t>Monza</t>
         </is>
       </c>
       <c r="G254" t="inlineStr">
-        <is>
-          <t>Monza</t>
-        </is>
-      </c>
-      <c r="H254" t="inlineStr">
         <is>
           <t>Fabio Albanese</t>
         </is>
@@ -11084,20 +9814,15 @@
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>Lombardia - P03</t>
+          <t>Lombardia - U07</t>
         </is>
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>Lombardia - U07</t>
+          <t>Bergamo</t>
         </is>
       </c>
       <c r="G255" t="inlineStr">
-        <is>
-          <t>Bergamo</t>
-        </is>
-      </c>
-      <c r="H255" t="inlineStr">
         <is>
           <t>Andrea Moltrasio</t>
         </is>
@@ -11126,20 +9851,15 @@
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>Lombardia - P03</t>
+          <t>Lombardia - U08</t>
         </is>
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>Lombardia - U08</t>
+          <t>Brescia</t>
         </is>
       </c>
       <c r="G256" t="inlineStr">
-        <is>
-          <t>Brescia</t>
-        </is>
-      </c>
-      <c r="H256" t="inlineStr">
         <is>
           <t>Riccardo Canini</t>
         </is>
@@ -11168,20 +9888,15 @@
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>Lombardia - P03</t>
+          <t>Lombardia - U09</t>
         </is>
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>Lombardia - U09</t>
+          <t>Treviglio</t>
         </is>
       </c>
       <c r="G257" t="inlineStr">
-        <is>
-          <t>Treviglio</t>
-        </is>
-      </c>
-      <c r="H257" t="inlineStr">
         <is>
           <t>Maria Stella Gelmini</t>
         </is>
@@ -11210,20 +9925,15 @@
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>Lombardia - P02</t>
+          <t>Lombardia - U10</t>
         </is>
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>Lombardia - U10</t>
+          <t>Pavia</t>
         </is>
       </c>
       <c r="G258" t="inlineStr">
-        <is>
-          <t>Pavia</t>
-        </is>
-      </c>
-      <c r="H258" t="inlineStr">
         <is>
           <t>Francesca Zanchi</t>
         </is>
@@ -11252,20 +9962,15 @@
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>Lombardia - P03</t>
+          <t>Lombardia - U11</t>
         </is>
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>Lombardia - U11</t>
+          <t>Cremona</t>
         </is>
       </c>
       <c r="G259" t="inlineStr">
-        <is>
-          <t>Cremona</t>
-        </is>
-      </c>
-      <c r="H259" t="inlineStr">
         <is>
           <t>Francesca Zaltieri</t>
         </is>
@@ -11294,20 +9999,15 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>Marche - P01</t>
+          <t>Marche - U01</t>
         </is>
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>Marche - U01</t>
+          <t>Ascoli Piceno</t>
         </is>
       </c>
       <c r="G260" t="inlineStr">
-        <is>
-          <t>Ascoli Piceno</t>
-        </is>
-      </c>
-      <c r="H260" t="inlineStr">
         <is>
           <t>Fabio Urbinati</t>
         </is>
@@ -11336,20 +10036,15 @@
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>Marche - P01</t>
+          <t>Marche - U02</t>
         </is>
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>Marche - U02</t>
+          <t>Ancona</t>
         </is>
       </c>
       <c r="G261" t="inlineStr">
-        <is>
-          <t>Ancona</t>
-        </is>
-      </c>
-      <c r="H261" t="inlineStr">
         <is>
           <t>Elena Fabbri</t>
         </is>
@@ -11378,20 +10073,15 @@
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>Molise - P01</t>
+          <t>Molise - U01</t>
         </is>
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>Molise - U01</t>
+          <t>Campobasso</t>
         </is>
       </c>
       <c r="G262" t="inlineStr">
-        <is>
-          <t>Campobasso</t>
-        </is>
-      </c>
-      <c r="H262" t="inlineStr">
         <is>
           <t>Carla Gianmaria</t>
         </is>
@@ -11420,20 +10110,15 @@
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>Piemonte - P01</t>
+          <t>Piemonte - U01</t>
         </is>
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>Piemonte - U01</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="G263" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
-      <c r="H263" t="inlineStr">
         <is>
           <t>Silvia Fregolent</t>
         </is>
@@ -11462,20 +10147,15 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>Piemonte - P01</t>
+          <t>Piemonte - U02</t>
         </is>
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>Piemonte - U02</t>
+          <t>Moncalieri</t>
         </is>
       </c>
       <c r="G264" t="inlineStr">
-        <is>
-          <t>Moncalieri</t>
-        </is>
-      </c>
-      <c r="H264" t="inlineStr">
         <is>
           <t>Michael Bouquet</t>
         </is>
@@ -11504,20 +10184,15 @@
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>Piemonte - P02</t>
+          <t>Piemonte - U03</t>
         </is>
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>Piemonte - U03</t>
+          <t>Novara</t>
         </is>
       </c>
       <c r="G265" t="inlineStr">
-        <is>
-          <t>Novara</t>
-        </is>
-      </c>
-      <c r="H265" t="inlineStr">
         <is>
           <t>Roberto Faggiano</t>
         </is>
@@ -11546,20 +10221,15 @@
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>Piemonte - P02</t>
+          <t>Piemonte - U04</t>
         </is>
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>Piemonte - U04</t>
+          <t>Alessandria</t>
         </is>
       </c>
       <c r="G266" t="inlineStr">
-        <is>
-          <t>Alessandria</t>
-        </is>
-      </c>
-      <c r="H266" t="inlineStr">
         <is>
           <t>Elena Caffarone</t>
         </is>
@@ -11588,20 +10258,15 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>Piemonte - P02</t>
+          <t>Piemonte - U05</t>
         </is>
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>Piemonte - U05</t>
+          <t>Cuneo</t>
         </is>
       </c>
       <c r="G267" t="inlineStr">
-        <is>
-          <t>Cuneo</t>
-        </is>
-      </c>
-      <c r="H267" t="inlineStr">
         <is>
           <t>Vincenzo Pellegrino</t>
         </is>
@@ -11630,20 +10295,15 @@
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>Puglia - P01</t>
+          <t>Puglia - U01</t>
         </is>
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>Puglia - U01</t>
+          <t>Foggia</t>
         </is>
       </c>
       <c r="G268" t="inlineStr">
-        <is>
-          <t>Foggia</t>
-        </is>
-      </c>
-      <c r="H268" t="inlineStr">
         <is>
           <t>Lorenzo Frattarolo</t>
         </is>
@@ -11672,20 +10332,15 @@
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>Puglia - P01</t>
+          <t>Puglia - U02</t>
         </is>
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>Puglia - U02</t>
+          <t>Andria</t>
         </is>
       </c>
       <c r="G269" t="inlineStr">
-        <is>
-          <t>Andria</t>
-        </is>
-      </c>
-      <c r="H269" t="inlineStr">
         <is>
           <t>Stefania D'Addato</t>
         </is>
@@ -11714,20 +10369,15 @@
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>Puglia - P01</t>
+          <t>Puglia - U03</t>
         </is>
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t>Puglia - U03</t>
+          <t>Bari</t>
         </is>
       </c>
       <c r="G270" t="inlineStr">
-        <is>
-          <t>Bari</t>
-        </is>
-      </c>
-      <c r="H270" t="inlineStr">
         <is>
           <t>Nunzia Cinone</t>
         </is>
@@ -11756,20 +10406,15 @@
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>Puglia - P01</t>
+          <t>Puglia - U04</t>
         </is>
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>Puglia - U04</t>
+          <t>Taranto</t>
         </is>
       </c>
       <c r="G271" t="inlineStr">
-        <is>
-          <t>Taranto</t>
-        </is>
-      </c>
-      <c r="H271" t="inlineStr">
         <is>
           <t>Nicola Bruni</t>
         </is>
@@ -11798,20 +10443,15 @@
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>Puglia - P01</t>
+          <t>Puglia - U05</t>
         </is>
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>Puglia - U05</t>
+          <t>Lecce</t>
         </is>
       </c>
       <c r="G272" t="inlineStr">
-        <is>
-          <t>Lecce</t>
-        </is>
-      </c>
-      <c r="H272" t="inlineStr">
         <is>
           <t>Alfredo Pagliaro</t>
         </is>
@@ -11840,20 +10480,15 @@
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>Sardegna - P01</t>
+          <t>Sardegna - U01</t>
         </is>
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>Sardegna - U01</t>
+          <t>Cagliari</t>
         </is>
       </c>
       <c r="G273" t="inlineStr">
-        <is>
-          <t>Cagliari</t>
-        </is>
-      </c>
-      <c r="H273" t="inlineStr">
         <is>
           <t>Claudia Medda</t>
         </is>
@@ -11882,20 +10517,15 @@
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>Sardegna - P01</t>
+          <t>Sardegna - U02</t>
         </is>
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>Sardegna - U02</t>
+          <t>Sassari</t>
         </is>
       </c>
       <c r="G274" t="inlineStr">
-        <is>
-          <t>Sassari</t>
-        </is>
-      </c>
-      <c r="H274" t="inlineStr">
         <is>
           <t>Valerio Zoccheddu</t>
         </is>
@@ -11924,20 +10554,15 @@
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>Sicilia - P01</t>
+          <t>Sicilia - U01</t>
         </is>
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>Sicilia - U01</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="G275" t="inlineStr">
-        <is>
-          <t>Palermo</t>
-        </is>
-      </c>
-      <c r="H275" t="inlineStr">
         <is>
           <t>Giusi Provino</t>
         </is>
@@ -11966,20 +10591,15 @@
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>Sicilia - P01</t>
+          <t>Sicilia - U02</t>
         </is>
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>Sicilia - U02</t>
+          <t>Marsala</t>
         </is>
       </c>
       <c r="G276" t="inlineStr">
-        <is>
-          <t>Marsala</t>
-        </is>
-      </c>
-      <c r="H276" t="inlineStr">
         <is>
           <t>Giovanni Bavetta</t>
         </is>
@@ -12008,20 +10628,15 @@
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>Sicilia - P01</t>
+          <t>Sicilia - U03</t>
         </is>
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>Sicilia - U03</t>
+          <t>Gela</t>
         </is>
       </c>
       <c r="G277" t="inlineStr">
-        <is>
-          <t>Gela</t>
-        </is>
-      </c>
-      <c r="H277" t="inlineStr">
         <is>
           <t>Michele Termini</t>
         </is>
@@ -12050,20 +10665,15 @@
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>Sicilia - P02</t>
+          <t>Sicilia - U04</t>
         </is>
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>Sicilia - U04</t>
+          <t>Catania</t>
         </is>
       </c>
       <c r="G278" t="inlineStr">
-        <is>
-          <t>Catania</t>
-        </is>
-      </c>
-      <c r="H278" t="inlineStr">
         <is>
           <t>Tiziana D'Anna</t>
         </is>
@@ -12092,20 +10702,15 @@
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>Sicilia - P02</t>
+          <t>Sicilia - U05</t>
         </is>
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>Sicilia - U05</t>
+          <t>Siracusa</t>
         </is>
       </c>
       <c r="G279" t="inlineStr">
-        <is>
-          <t>Siracusa</t>
-        </is>
-      </c>
-      <c r="H279" t="inlineStr">
         <is>
           <t>Marianna Buscema</t>
         </is>
@@ -12134,20 +10739,15 @@
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>Sicilia - P02</t>
+          <t>Sicilia - U06</t>
         </is>
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>Sicilia - U06</t>
+          <t>Messina</t>
         </is>
       </c>
       <c r="G280" t="inlineStr">
-        <is>
-          <t>Messina</t>
-        </is>
-      </c>
-      <c r="H280" t="inlineStr">
         <is>
           <t>Emiliano Lazzara Papina</t>
         </is>
@@ -12176,20 +10776,15 @@
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>Toscana - P01</t>
+          <t>Toscana - U01</t>
         </is>
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>Toscana - U01</t>
+          <t>Arezzo</t>
         </is>
       </c>
       <c r="G281" t="inlineStr">
-        <is>
-          <t>Arezzo</t>
-        </is>
-      </c>
-      <c r="H281" t="inlineStr">
         <is>
           <t>Davide Vivaldi</t>
         </is>
@@ -12218,20 +10813,15 @@
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>Toscana - P01</t>
+          <t>Toscana - U02</t>
         </is>
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t>Toscana - U02</t>
+          <t>Livorno</t>
         </is>
       </c>
       <c r="G282" t="inlineStr">
-        <is>
-          <t>Livorno</t>
-        </is>
-      </c>
-      <c r="H282" t="inlineStr">
         <is>
           <t>Massimo Vitrani</t>
         </is>
@@ -12260,20 +10850,15 @@
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>Toscana - P01</t>
+          <t>Toscana - U03</t>
         </is>
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>Toscana - U03</t>
+          <t>Prato</t>
         </is>
       </c>
       <c r="G283" t="inlineStr">
-        <is>
-          <t>Prato</t>
-        </is>
-      </c>
-      <c r="H283" t="inlineStr">
         <is>
           <t>Barbara Masini</t>
         </is>
@@ -12302,20 +10887,15 @@
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>Toscana - P01</t>
+          <t>Toscana - U04</t>
         </is>
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>Toscana - U04</t>
+          <t>Firenze</t>
         </is>
       </c>
       <c r="G284" t="inlineStr">
-        <is>
-          <t>Firenze</t>
-        </is>
-      </c>
-      <c r="H284" t="inlineStr">
         <is>
           <t>Stefania Saccardi</t>
         </is>
@@ -12344,21 +10924,16 @@
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F285" t="inlineStr">
-        <is>
           <t>Trentino-Alto Adige/Südtirol -
 U01</t>
         </is>
       </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>Trento</t>
+        </is>
+      </c>
       <c r="G285" t="inlineStr">
-        <is>
-          <t>Trento</t>
-        </is>
-      </c>
-      <c r="H285" t="inlineStr">
         <is>
           <t>Alleanza democratica
 per l'autonomia</t>
@@ -12388,21 +10963,16 @@
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F286" t="inlineStr">
-        <is>
           <t>Trentino-Alto Adige/Südtirol -
 U02</t>
         </is>
       </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>Rovereto</t>
+        </is>
+      </c>
       <c r="G286" t="inlineStr">
-        <is>
-          <t>Rovereto</t>
-        </is>
-      </c>
-      <c r="H286" t="inlineStr">
         <is>
           <t>Donatella Consatti</t>
         </is>
@@ -12431,21 +11001,16 @@
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F287" t="inlineStr">
-        <is>
           <t>Trentino-Alto Adige/Südtirol -
 U03</t>
         </is>
       </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>Pergine Valsugana</t>
+        </is>
+      </c>
       <c r="G287" t="inlineStr">
-        <is>
-          <t>Pergine Valsugana</t>
-        </is>
-      </c>
-      <c r="H287" t="inlineStr">
         <is>
           <t>Alleanza democratica
 per l'autonomia</t>
@@ -12475,21 +11040,16 @@
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F288" t="inlineStr">
-        <is>
           <t>Trentino-Alto Adige/Südtirol -
 U04</t>
         </is>
       </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>Bolzano/Bozen</t>
+        </is>
+      </c>
       <c r="G288" t="inlineStr">
-        <is>
-          <t>Bolzano/Bozen</t>
-        </is>
-      </c>
-      <c r="H288" t="inlineStr">
         <is>
           <t>Stefania Gande</t>
         </is>
@@ -12518,21 +11078,16 @@
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F289" t="inlineStr">
-        <is>
           <t>Trentino-Alto Adige/Südtirol -
 U05</t>
         </is>
       </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>Merano/Meran</t>
+        </is>
+      </c>
       <c r="G289" t="inlineStr">
-        <is>
-          <t>Merano/Meran</t>
-        </is>
-      </c>
-      <c r="H289" t="inlineStr">
         <is>
           <t>Giovanna Valentini</t>
         </is>
@@ -12561,21 +11116,16 @@
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F290" t="inlineStr">
-        <is>
           <t>Trentino-Alto Adige/Südtirol -
 U06</t>
         </is>
       </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>Bressanone/Brixen</t>
+        </is>
+      </c>
       <c r="G290" t="inlineStr">
-        <is>
-          <t>Bressanone/Brixen</t>
-        </is>
-      </c>
-      <c r="H290" t="inlineStr">
         <is>
           <t>Massimo Papi</t>
         </is>
@@ -12604,20 +11154,15 @@
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>Umbria - P01</t>
+          <t>Umbria - U01</t>
         </is>
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>Umbria - U01</t>
+          <t>Perugia</t>
         </is>
       </c>
       <c r="G291" t="inlineStr">
-        <is>
-          <t>Perugia</t>
-        </is>
-      </c>
-      <c r="H291" t="inlineStr">
         <is>
           <t>Donatella Porzi</t>
         </is>
@@ -12646,21 +11191,16 @@
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F292" t="inlineStr">
-        <is>
           <t>Valle d'aosta/Vallée d'Aoste -
 U01</t>
         </is>
       </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>Aosta</t>
+        </is>
+      </c>
       <c r="G292" t="inlineStr">
-        <is>
-          <t>Aosta</t>
-        </is>
-      </c>
-      <c r="H292" t="inlineStr">
         <is>
           <t>NON INDICATO</t>
         </is>
@@ -12689,20 +11229,15 @@
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>Veneto - P01</t>
+          <t>Veneto - U01</t>
         </is>
       </c>
       <c r="F293" t="inlineStr">
         <is>
-          <t>Veneto - U01</t>
+          <t>Venezia</t>
         </is>
       </c>
       <c r="G293" t="inlineStr">
-        <is>
-          <t>Venezia</t>
-        </is>
-      </c>
-      <c r="H293" t="inlineStr">
         <is>
           <t>Gabriele Galiazzo</t>
         </is>
@@ -12731,20 +11266,15 @@
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>Veneto - P01</t>
+          <t>Veneto - U02</t>
         </is>
       </c>
       <c r="F294" t="inlineStr">
         <is>
-          <t>Veneto - U02</t>
+          <t>Treviso</t>
         </is>
       </c>
       <c r="G294" t="inlineStr">
-        <is>
-          <t>Treviso</t>
-        </is>
-      </c>
-      <c r="H294" t="inlineStr">
         <is>
           <t>Paola Bergamo</t>
         </is>
@@ -12773,20 +11303,15 @@
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>Veneto - P02</t>
+          <t>Veneto - U03</t>
         </is>
       </c>
       <c r="F295" t="inlineStr">
         <is>
-          <t>Veneto - U03</t>
+          <t>Padova</t>
         </is>
       </c>
       <c r="G295" t="inlineStr">
-        <is>
-          <t>Padova</t>
-        </is>
-      </c>
-      <c r="H295" t="inlineStr">
         <is>
           <t>Stefano Innocente
 Marangon</t>
@@ -12816,20 +11341,15 @@
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>Veneto - P02</t>
+          <t>Veneto - U04</t>
         </is>
       </c>
       <c r="F296" t="inlineStr">
         <is>
-          <t>Veneto - U04</t>
+          <t>Vicenza</t>
         </is>
       </c>
       <c r="G296" t="inlineStr">
-        <is>
-          <t>Vicenza</t>
-        </is>
-      </c>
-      <c r="H296" t="inlineStr">
         <is>
           <t>Marilisa Munari</t>
         </is>
@@ -12858,20 +11378,15 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>Veneto - P02</t>
+          <t>Veneto - U05</t>
         </is>
       </c>
       <c r="F297" t="inlineStr">
         <is>
-          <t>Veneto - U05</t>
+          <t>Verona</t>
         </is>
       </c>
       <c r="G297" t="inlineStr">
-        <is>
-          <t>Verona</t>
-        </is>
-      </c>
-      <c r="H297" t="inlineStr">
         <is>
           <t>Danilo Montanari</t>
         </is>
